--- a/Fase3_ValueBettingAnalysis/NeuralNetworkOutliers/PercentagePointDifference/20pointDifferenceOutliers.xlsx
+++ b/Fase3_ValueBettingAnalysis/NeuralNetworkOutliers/PercentagePointDifference/20pointDifferenceOutliers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE45"/>
+  <dimension ref="A1:AH47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,6 +589,21 @@
           <t>DiffA</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffH</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffD</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -666,13 +681,13 @@
         <v>0.2</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6461766362190247</v>
+        <v>0.6509307622909546</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2250674813985825</v>
+        <v>0.2135529071092606</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1287558972835541</v>
+        <v>0.1355163156986237</v>
       </c>
       <c r="Z2" t="n">
         <v>0.3143562518529746</v>
@@ -684,13 +699,22 @@
         <v>0.2602437356586661</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.33182038436605</v>
+        <v>0.33657451043798</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.2003325310897768</v>
+        <v>-0.2118471053790987</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.131487838375112</v>
+        <v>-0.1247274199600424</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>107.0678596191549</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-49.79950614949635</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-47.92715553531481</v>
       </c>
     </row>
     <row r="3">
@@ -769,13 +793,13 @@
         <v>0.2</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5860278606414795</v>
+        <v>0.574128270149231</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2486189156770706</v>
+        <v>0.2473982125520706</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1653532683849335</v>
+        <v>0.1784735023975372</v>
       </c>
       <c r="Z3" t="n">
         <v>0.2890639689963178</v>
@@ -787,13 +811,22 @@
         <v>0.288171160348907</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2969638916451617</v>
+        <v>0.2850643011529131</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.1741459549777045</v>
+        <v>-0.1753666581027045</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.1228178919639735</v>
+        <v>-0.1096976579513698</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>98.61633815612086</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-41.48089642147842</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-38.06684118513174</v>
       </c>
     </row>
     <row r="4">
@@ -872,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6805330514907837</v>
+        <v>0.6785430312156677</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2082641422748566</v>
+        <v>0.2025997191667557</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1112027913331985</v>
+        <v>0.11885716766119</v>
       </c>
       <c r="Z4" t="n">
         <v>0.4566793997742092</v>
@@ -890,13 +923,22 @@
         <v>0.1790813753668759</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.2238536517165745</v>
+        <v>0.2218636314414585</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.1559750825840583</v>
+        <v>-0.1616395056921592</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.06787858403367736</v>
+        <v>-0.06022420770568587</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>48.58192236197912</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-44.37729235635425</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-33.62952042461549</v>
       </c>
     </row>
     <row r="5">
@@ -975,13 +1017,13 @@
         <v>0.2</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3682800531387329</v>
+        <v>0.3679454028606415</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2903216481208801</v>
+        <v>0.2901263833045959</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3413983285427094</v>
+        <v>0.3419282138347626</v>
       </c>
       <c r="Z5" t="n">
         <v>0.1572909682061864</v>
@@ -993,13 +1035,22 @@
         <v>0.471956436731255</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.2109890849325465</v>
+        <v>0.2106544346544551</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.08043094694167846</v>
+        <v>-0.08062621175796264</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.1305581081885456</v>
+        <v>-0.1300282228964924</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>133.9265928977668</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-21.7466345028167</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-27.55089512012187</v>
       </c>
     </row>
     <row r="6">
@@ -1078,13 +1129,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.6384115815162659</v>
+        <v>0.6446380615234375</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2287046015262604</v>
+        <v>0.220141589641571</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1328838914632797</v>
+        <v>0.1352203637361526</v>
       </c>
       <c r="Z6" t="n">
         <v>0.2962041139150656</v>
@@ -1096,13 +1147,22 @@
         <v>0.281794533329756</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3422074676012002</v>
+        <v>0.3484339476083719</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.193296751228918</v>
+        <v>-0.2018597631136074</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.1489106418664763</v>
+        <v>-0.1465741695936034</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>117.6330547887943</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-47.83391375304787</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-52.01455395945607</v>
       </c>
     </row>
     <row r="7">
@@ -1181,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.5883101224899292</v>
+        <v>0.5987902879714966</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2472349107265472</v>
+        <v>0.2358331680297852</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1644550263881683</v>
+        <v>0.1653765439987183</v>
       </c>
       <c r="Z7" t="n">
         <v>0.2729387142374602</v>
@@ -1199,13 +1259,22 @@
         <v>0.2767748170377056</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.315371408252469</v>
+        <v>0.3258515737340364</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.2030515579982869</v>
+        <v>-0.214453300695049</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.1123197906495373</v>
+        <v>-0.1113982730389874</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>119.3863518571943</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-47.62597048549097</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-40.24870262087874</v>
       </c>
     </row>
     <row r="8">
@@ -1284,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.7752826809883118</v>
+        <v>0.8026657700538635</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1621831208467484</v>
+        <v>0.1398382633924484</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.06253416836261749</v>
+        <v>0.05749594792723656</v>
       </c>
       <c r="Z8" t="n">
         <v>0.5050918173100506</v>
@@ -1302,13 +1371,22 @@
         <v>0.1424659780590271</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.2701908636782612</v>
+        <v>0.2975739527438129</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.1902590837841739</v>
+        <v>-0.2126039412384739</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.07993180969640962</v>
+        <v>-0.08497003013179055</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>58.91482351240451</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-60.32306529835518</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-59.64233095468268</v>
       </c>
     </row>
     <row r="9">
@@ -1387,13 +1465,13 @@
         <v>0.2</v>
       </c>
       <c r="W9" t="n">
-        <v>0.4427528381347656</v>
+        <v>0.4307619035243988</v>
       </c>
       <c r="X9" t="n">
-        <v>0.28449746966362</v>
+        <v>0.2868267893791199</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.2727496922016144</v>
+        <v>0.2824113368988037</v>
       </c>
       <c r="Z9" t="n">
         <v>0.1979228682939737</v>
@@ -1405,13 +1483,22 @@
         <v>0.5454124495600979</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.2448299698407919</v>
+        <v>0.2328390352304251</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.02783278751769158</v>
+        <v>0.03016210723319146</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.2726627573584836</v>
+        <v>-0.2630011126612942</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>117.6412999859069</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11.75156121247823</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-48.22059211765657</v>
       </c>
     </row>
     <row r="10">
@@ -1490,13 +1577,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.7533859014511108</v>
+        <v>0.7772766947746277</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1746146827936172</v>
+        <v>0.1553220003843307</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.07199937850236893</v>
+        <v>0.06740126013755798</v>
       </c>
       <c r="Z10" t="n">
         <v>0.4524206900186175</v>
@@ -1508,13 +1595,22 @@
         <v>0.1722920524778064</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.3009652114324933</v>
+        <v>0.3248560047560102</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.200672574709959</v>
+        <v>-0.2199652571192455</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.1002926739754375</v>
+        <v>-0.1048907923402484</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>71.8039673965048</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-58.6125035479387</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-60.87964640955206</v>
       </c>
     </row>
     <row r="11">
@@ -1593,13 +1689,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.620849609375</v>
+        <v>0.6194396018981934</v>
       </c>
       <c r="X11" t="n">
-        <v>0.2347483932971954</v>
+        <v>0.2309439331293106</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1444020420312881</v>
+        <v>0.1496164947748184</v>
       </c>
       <c r="Z11" t="n">
         <v>0.2830072236890522</v>
@@ -1611,13 +1707,22 @@
         <v>0.2963765355987786</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.3378423856859478</v>
+        <v>0.3364323782091412</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.1858678474149738</v>
+        <v>-0.1896723075828586</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.1519744935674904</v>
+        <v>-0.1467600408239602</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>118.8776646135325</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-45.09390965544118</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-49.51810389694189</v>
       </c>
     </row>
     <row r="12">
@@ -1696,13 +1801,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.439168244600296</v>
+        <v>0.4512029886245728</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2907251119613647</v>
+        <v>0.2866727411746979</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.2701066434383392</v>
+        <v>0.2621242105960846</v>
       </c>
       <c r="Z12" t="n">
         <v>0.1737173237163191</v>
@@ -1714,13 +1819,22 @@
         <v>0.4143650422648397</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2654509208839769</v>
+        <v>0.2774856649082537</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.1211925220574764</v>
+        <v>-0.1252448928441433</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.1442583988265005</v>
+        <v>-0.1522408316687551</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>159.7340201725584</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-30.40532439026745</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-36.74075178654937</v>
       </c>
     </row>
     <row r="13">
@@ -1799,13 +1913,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2966217994689941</v>
+        <v>0.2819399833679199</v>
       </c>
       <c r="X13" t="n">
-        <v>0.2781850397586823</v>
+        <v>0.2810776233673096</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.4251931607723236</v>
+        <v>0.4369824230670929</v>
       </c>
       <c r="Z13" t="n">
         <v>0.5377762351035521</v>
@@ -1817,13 +1931,22 @@
         <v>0.2010181649890085</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.241154435634558</v>
+        <v>-0.2558362517356322</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.01697943985124273</v>
+        <v>0.01987202345987005</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.2241749957833151</v>
+        <v>0.2359642580780844</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-47.57299319602127</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>7.607809123124416</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>117.3845448698563</v>
       </c>
     </row>
     <row r="14">
@@ -1902,13 +2025,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0.4888893067836761</v>
+        <v>0.496292382478714</v>
       </c>
       <c r="X14" t="n">
-        <v>0.2779743671417236</v>
+        <v>0.2736426293849945</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.233136385679245</v>
+        <v>0.2300649583339691</v>
       </c>
       <c r="Z14" t="n">
         <v>0.1901203196054265</v>
@@ -1920,13 +2043,22 @@
         <v>0.403001522543897</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.2987689871782496</v>
+        <v>0.3061720628732875</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.1289037907089529</v>
+        <v>-0.133235528465682</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.169865136864652</v>
+        <v>-0.1729365642099279</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>161.0412098552713</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>-32.74580507577385</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>-42.91213668829024</v>
       </c>
     </row>
     <row r="15">
@@ -2005,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0.5122926235198975</v>
+        <v>0.5201937556266785</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2693818807601929</v>
+        <v>0.2618935704231262</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.2183255851268768</v>
+        <v>0.2179126143455505</v>
       </c>
       <c r="Z15" t="n">
         <v>0.209133710096302</v>
@@ -2023,13 +2155,22 @@
         <v>0.3507450687417161</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.3031589134235955</v>
+        <v>0.3110600455303765</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.170739340401789</v>
+        <v>-0.1782276507388557</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.1324194836148393</v>
+        <v>-0.1328324543961656</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>148.7374012478139</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-40.49512774419502</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-37.87151017481064</v>
       </c>
     </row>
     <row r="16">
@@ -2108,13 +2249,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.7894672751426697</v>
+        <v>0.8197962045669556</v>
       </c>
       <c r="X16" t="n">
-        <v>0.1550035029649734</v>
+        <v>0.1295108795166016</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.05552917718887329</v>
+        <v>0.05069293826818466</v>
       </c>
       <c r="Z16" t="n">
         <v>0.53970906748576</v>
@@ -2126,13 +2267,22 @@
         <v>0.1349728042547918</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.2497582076569097</v>
+        <v>0.2800871370811956</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.1703146252944747</v>
+        <v>-0.1958072487428466</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.07944362706591851</v>
+        <v>-0.08427986598660714</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51.89594801250686</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>-60.18946739626085</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>-62.4421093211561</v>
       </c>
     </row>
     <row r="17">
@@ -2211,13 +2361,13 @@
         <v>0.2</v>
       </c>
       <c r="W17" t="n">
-        <v>0.3982333242893219</v>
+        <v>0.4152391850948334</v>
       </c>
       <c r="X17" t="n">
-        <v>0.2945201992988586</v>
+        <v>0.2892413437366486</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.3072465062141418</v>
+        <v>0.2955194711685181</v>
       </c>
       <c r="Z17" t="n">
         <v>0.1920732515564946</v>
@@ -2229,13 +2379,22 @@
         <v>0.4108397169417525</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.2061600727328273</v>
+        <v>0.2231659335383388</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.1025668322028945</v>
+        <v>-0.1078456877651046</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.1035932107276106</v>
+        <v>-0.1153202457732344</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>116.1879292040302</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>-27.15920672534692</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>-28.06940055154992</v>
       </c>
     </row>
     <row r="18">
@@ -2314,13 +2473,13 @@
         <v>0.2</v>
       </c>
       <c r="W18" t="n">
-        <v>0.4162051975727081</v>
+        <v>0.4263063073158264</v>
       </c>
       <c r="X18" t="n">
-        <v>0.2873514890670776</v>
+        <v>0.2802451550960541</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.2964433431625366</v>
+        <v>0.2934485673904419</v>
       </c>
       <c r="Z18" t="n">
         <v>0.1980433115746062</v>
@@ -2332,13 +2491,22 @@
         <v>0.388524511124726</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.2181618859981019</v>
+        <v>0.2282629957412202</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.1260806882335901</v>
+        <v>-0.1331870222046137</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0.0920811679621894</v>
+        <v>-0.09507594373428413</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>115.2591288876877</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-32.21496282031132</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-24.47102847103574</v>
       </c>
     </row>
     <row r="19">
@@ -2417,13 +2585,13 @@
         <v>0.2</v>
       </c>
       <c r="W19" t="n">
-        <v>0.4426592886447906</v>
+        <v>0.4430721998214722</v>
       </c>
       <c r="X19" t="n">
-        <v>0.294695109128952</v>
+        <v>0.288843959569931</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.2626456022262573</v>
+        <v>0.2680838704109192</v>
       </c>
       <c r="Z19" t="n">
         <v>0.2032605434616242</v>
@@ -2435,13 +2603,22 @@
         <v>0.3614575744130715</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.2393987451831665</v>
+        <v>0.239811656359848</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0.1405867729963522</v>
+        <v>-0.1464379225553732</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.0988119721868142</v>
+        <v>-0.09337370400215234</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>117.9823945541721</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>-33.64209000392492</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>-25.83254871716851</v>
       </c>
     </row>
     <row r="20">
@@ -2520,13 +2697,13 @@
         <v>0.2</v>
       </c>
       <c r="W20" t="n">
-        <v>0.6787468194961548</v>
+        <v>0.6915346384048462</v>
       </c>
       <c r="X20" t="n">
-        <v>0.2099265605211258</v>
+        <v>0.1967647969722748</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.1113266795873642</v>
+        <v>0.1117005422711372</v>
       </c>
       <c r="Z20" t="n">
         <v>0.3909582976207729</v>
@@ -2538,235 +2715,262 @@
         <v>0.1887771208857646</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.2877885218753819</v>
+        <v>0.3005763407840733</v>
       </c>
       <c r="AD20" t="n">
-        <v>-0.2103380209723366</v>
+        <v>-0.2234997845211876</v>
       </c>
       <c r="AE20" t="n">
-        <v>-0.0774504412984004</v>
+        <v>-0.07707657861462736</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>76.88194434374954</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>-53.18073289139745</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>-40.82940679091562</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>11/11/2018</t>
+          <t>20/10/2018</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3.571428571428572</v>
+        <v>1.428571428571428</v>
       </c>
       <c r="F21" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="G21" t="n">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="H21" t="n">
-        <v>18.2</v>
+        <v>6.4</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="J21" t="n">
-        <v>8.6</v>
+        <v>11.2</v>
       </c>
       <c r="K21" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>2.337662337662338</v>
+        <v>0.4545454545454546</v>
       </c>
       <c r="O21" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>16.8</v>
+        <v>9.6</v>
       </c>
       <c r="R21" t="n">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
       <c r="S21" t="n">
-        <v>11.6</v>
+        <v>12.4</v>
       </c>
       <c r="T21" t="n">
-        <v>8.4</v>
+        <v>4.2</v>
       </c>
       <c r="U21" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0.570621132850647</v>
+        <v>0.3910658955574036</v>
       </c>
       <c r="X21" t="n">
-        <v>0.2482068687677383</v>
+        <v>0.2897462248802185</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.1811719983816147</v>
+        <v>0.3191879391670227</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.2875920617686603</v>
+        <v>0.1834279999582063</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.4296789846726756</v>
+        <v>0.43755666625588</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.282728953558664</v>
+        <v>0.3790153337859137</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.2830290710819867</v>
+        <v>0.2076378955991973</v>
       </c>
       <c r="AD21" t="n">
-        <v>-0.1814721159049373</v>
+        <v>-0.1478104413756615</v>
       </c>
       <c r="AE21" t="n">
-        <v>-0.1015569551770493</v>
+        <v>-0.05982739461889097</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>113.1985823573866</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>-33.78086834796913</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>-15.78495361158248</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30/03/2019</t>
+          <t>11/11/2018</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2.37012987012987</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="F22" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="G22" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4</v>
+        <v>18.2</v>
       </c>
       <c r="I22" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="K22" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.7467532467532467</v>
+        <v>2.337662337662338</v>
       </c>
       <c r="O22" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.199999999999999</v>
+        <v>16.8</v>
       </c>
       <c r="R22" t="n">
-        <v>3.2</v>
+        <v>5.4</v>
       </c>
       <c r="S22" t="n">
-        <v>8.800000000000001</v>
+        <v>11.6</v>
       </c>
       <c r="T22" t="n">
-        <v>4.8</v>
+        <v>8.4</v>
       </c>
       <c r="U22" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.5233713984489441</v>
+        <v>0.5751750469207764</v>
       </c>
       <c r="X22" t="n">
-        <v>0.2730902135372162</v>
+        <v>0.243153840303421</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.2035383731126785</v>
+        <v>0.1816711276769638</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.2249931865467219</v>
+        <v>0.2875920617686603</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.4156559935219178</v>
+        <v>0.4296789846726756</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.3593508199313602</v>
+        <v>0.282728953558664</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.2983782119022222</v>
+        <v>0.2875829851521161</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.1425657799847016</v>
+        <v>-0.1865251443692546</v>
       </c>
       <c r="AE22" t="n">
-        <v>-0.1558124468186817</v>
+        <v>-0.1010578258817002</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>99.99684392660618</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>-43.41034842822189</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>-35.74371305439416</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03/05/2019</t>
+          <t>30/03/2019</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2775,101 +2979,110 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.272727272727272</v>
+        <v>2.37012987012987</v>
       </c>
       <c r="F23" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
-        <v>17</v>
+        <v>17.4</v>
       </c>
       <c r="I23" t="n">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="J23" t="n">
-        <v>11.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K23" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.7467532467532467</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="L23" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.883116883116883</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>7.6</v>
-      </c>
       <c r="R23" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="S23" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="T23" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="U23" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0.522251307964325</v>
+        <v>0.5269556045532227</v>
       </c>
       <c r="X23" t="n">
-        <v>0.2751402258872986</v>
+        <v>0.260079026222229</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.2026085704565048</v>
+        <v>0.2129653692245483</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.2520887249900191</v>
+        <v>0.2249931865467219</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.437843553953427</v>
+        <v>0.4156559935219178</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.310067721056554</v>
+        <v>0.3593508199313602</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.2701625829743058</v>
+        <v>0.3019624180065008</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.1627033280661284</v>
+        <v>-0.1555769672996888</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.1074591506000492</v>
+        <v>-0.1463854507068119</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>134.2095832505557</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-37.42926114969761</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-40.73608367855485</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>03/05/2019</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2878,96 +3091,105 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.636363636363637</v>
+        <v>2.272727272727272</v>
       </c>
       <c r="F24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>17</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.883116883116883</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U24" t="n">
         <v>1.6</v>
       </c>
-      <c r="G24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H24" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J24" t="n">
-        <v>10</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.4545454545454546</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>11</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="S24" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2</v>
-      </c>
       <c r="V24" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0.6793861389160156</v>
+        <v>0.5327432155609131</v>
       </c>
       <c r="X24" t="n">
-        <v>0.2114654183387756</v>
+        <v>0.2534510791301727</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.1091485172510147</v>
+        <v>0.2138056308031082</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.3257455446787606</v>
+        <v>0.2520887249900191</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.4186391223644433</v>
+        <v>0.437843553953427</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.2556153329567962</v>
+        <v>0.310067721056554</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.353640594237255</v>
+        <v>0.280654490570894</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.2071737040256676</v>
+        <v>-0.1843924748232543</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.1464668157057815</v>
+        <v>-0.09626209025344579</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>111.3316315840805</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>-42.11378086038191</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>-31.04550513205092</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>02/04/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2981,28 +3203,28 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1.623376623376623</v>
+        <v>3.636363636363637</v>
       </c>
       <c r="F25" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="G25" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
-        <v>9</v>
+        <v>10.4</v>
       </c>
       <c r="I25" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="J25" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -3014,269 +3236,296 @@
         <v>0.6</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="R25" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="S25" t="n">
-        <v>10.4</v>
+        <v>12.4</v>
       </c>
       <c r="T25" t="n">
         <v>3</v>
       </c>
       <c r="U25" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W25" t="n">
-        <v>0.4733563363552094</v>
+        <v>0.6872597932815552</v>
       </c>
       <c r="X25" t="n">
-        <v>0.285904586315155</v>
+        <v>0.2024488598108292</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.2407390773296356</v>
+        <v>0.1102913469076157</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.233674139830982</v>
+        <v>0.3257455446787606</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.4229231841261414</v>
+        <v>0.4186391223644433</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.3434026760428767</v>
+        <v>0.2556153329567962</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.2396821965242273</v>
+        <v>0.3615142486027946</v>
       </c>
       <c r="AD25" t="n">
-        <v>-0.1370185978109864</v>
+        <v>-0.2161902625536141</v>
       </c>
       <c r="AE25" t="n">
-        <v>-0.1026635987132411</v>
+        <v>-0.1453239860491806</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>110.9805658153538</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>-51.64119906725087</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>-56.85260910140435</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>02/01/2019</t>
+          <t>02/04/2019</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3.376623376623376</v>
+        <v>1.623376623376623</v>
       </c>
       <c r="F26" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="G26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L26" t="n">
         <v>2.4</v>
       </c>
-      <c r="H26" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="I26" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1.233766233766234</v>
+        <v>0.4545454545454546</v>
       </c>
       <c r="O26" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="P26" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>10.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="R26" t="n">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="S26" t="n">
         <v>10.4</v>
       </c>
       <c r="T26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="V26" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0.6040735840797424</v>
+        <v>0.4771891832351685</v>
       </c>
       <c r="X26" t="n">
-        <v>0.2437484562397003</v>
+        <v>0.2850337624549866</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.1521780043840408</v>
+        <v>0.2377770245075226</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.3553368047896701</v>
+        <v>0.233674139830982</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.417874552457174</v>
+        <v>0.4229231841261414</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.2267886427531559</v>
+        <v>0.3434026760428767</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.2487367792900723</v>
+        <v>0.2435150434041864</v>
       </c>
       <c r="AD26" t="n">
-        <v>-0.1741260962174737</v>
+        <v>-0.1378894216711548</v>
       </c>
       <c r="AE26" t="n">
-        <v>-0.07461063836911508</v>
+        <v>-0.1056256515353541</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>104.2113789657351</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>-32.60389282182927</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>-30.75854060093751</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04/05/2019</t>
+          <t>02/01/2019</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1.883116883116883</v>
+        <v>3.376623376623376</v>
       </c>
       <c r="F27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.233766233766234</v>
+      </c>
+      <c r="O27" t="n">
         <v>1.6</v>
       </c>
-      <c r="G27" t="n">
-        <v>2</v>
-      </c>
-      <c r="H27" t="n">
-        <v>14</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.4545454545454546</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1</v>
-      </c>
       <c r="P27" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.8</v>
+        <v>10.6</v>
       </c>
       <c r="R27" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="S27" t="n">
-        <v>9</v>
+        <v>10.4</v>
       </c>
       <c r="T27" t="n">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="U27" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W27" t="n">
-        <v>0.4840720295906067</v>
+        <v>0.6030229330062866</v>
       </c>
       <c r="X27" t="n">
-        <v>0.2852675318717957</v>
+        <v>0.2383664101362228</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.2306604087352753</v>
+        <v>0.158610612154007</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.2724122755253873</v>
+        <v>0.3553368047896701</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.4487339196154495</v>
+        <v>0.417874552457174</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.2788538048591632</v>
+        <v>0.2267886427531559</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.2116597540652194</v>
+        <v>0.2476861282166165</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.1634663877436539</v>
+        <v>-0.1795081423209511</v>
       </c>
       <c r="AE27" t="n">
-        <v>-0.04819339612388795</v>
+        <v>-0.06817803059914895</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>69.70460838224348</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>-42.95742376878719</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>-30.06236545687878</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>01/12/2018</t>
+          <t>26/08/2018</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3290,28 +3539,28 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.272727272727272</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="G28" t="n">
         <v>0.4</v>
       </c>
       <c r="H28" t="n">
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="I28" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="J28" t="n">
-        <v>12.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -3320,277 +3569,304 @@
         <v>1.753246753246753</v>
       </c>
       <c r="O28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="S28" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="T28" t="n">
+        <v>5</v>
+      </c>
+      <c r="U28" t="n">
         <v>0.6</v>
       </c>
-      <c r="P28" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S28" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="T28" t="n">
-        <v>3</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2</v>
-      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0.4558014273643494</v>
+        <v>0.4012518525123596</v>
       </c>
       <c r="X28" t="n">
-        <v>0.2931921780109406</v>
+        <v>0.2923436462879181</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.2510063350200653</v>
+        <v>0.3064044713973999</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.2404643123654608</v>
+        <v>0.193145751782348</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.4649561066151115</v>
+        <v>0.4429916522193971</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.2945795810194278</v>
+        <v>0.3638625959982548</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.2153371149988886</v>
+        <v>0.2081061007300116</v>
       </c>
       <c r="AD28" t="n">
-        <v>-0.1717639286041709</v>
+        <v>-0.150648005931479</v>
       </c>
       <c r="AE28" t="n">
-        <v>-0.04357324599936252</v>
+        <v>-0.05745812460085492</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>107.7456267143386</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>-34.00696269934873</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>-15.79115996883904</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20/10/2018</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.428571428571428</v>
+        <v>2.272727272727272</v>
       </c>
       <c r="F29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L29" t="n">
         <v>1.2</v>
       </c>
-      <c r="G29" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H29" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J29" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K29" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.2</v>
-      </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1.818181818181818</v>
+        <v>1.753246753246753</v>
       </c>
       <c r="O29" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="P29" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>11.8</v>
+        <v>7.6</v>
       </c>
       <c r="R29" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="S29" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T29" t="n">
-        <v>6.6</v>
+        <v>3</v>
       </c>
       <c r="U29" t="n">
         <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0.4257431030273438</v>
+        <v>0.4544215798377991</v>
       </c>
       <c r="X29" t="n">
-        <v>0.2896725535392761</v>
+        <v>0.2865602076053619</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.2845843732357025</v>
+        <v>0.2590182423591614</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.2229758680008035</v>
+        <v>0.2404643123654608</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.4529694406176625</v>
+        <v>0.4649561066151115</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.324054691381534</v>
+        <v>0.2945795810194278</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.2027672350265403</v>
+        <v>0.2139572674723383</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.1632968870783864</v>
+        <v>-0.1783958990097496</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.03947031814583146</v>
+        <v>-0.03556133866026645</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>88.97672397522474</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>-38.36833121914987</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>-12.07189532186929</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>11/08/2018</t>
+          <t>20/10/2018</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>Watford</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Brighton</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E30" t="n">
+        <v>1.428571428571428</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H30" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J30" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>1.818181818181818</v>
       </c>
-      <c r="F30" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="O30" t="n">
         <v>0.8</v>
       </c>
-      <c r="H30" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J30" t="n">
+      <c r="P30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
         <v>11</v>
       </c>
-      <c r="K30" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.4545454545454546</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="S30" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="T30" t="n">
-        <v>3.6</v>
+        <v>6.6</v>
       </c>
       <c r="U30" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W30" t="n">
-        <v>0.3927648961544037</v>
+        <v>0.4390305578708649</v>
       </c>
       <c r="X30" t="n">
-        <v>0.3005331456661224</v>
+        <v>0.2831952571868896</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.3067019879817963</v>
+        <v>0.2777741849422455</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.1714223197401433</v>
+        <v>0.2229758680008035</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.4236124580369214</v>
+        <v>0.4529694406176625</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.4049652222229352</v>
+        <v>0.324054691381534</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.2213425764142604</v>
+        <v>0.2160546898700614</v>
       </c>
       <c r="AD30" t="n">
-        <v>-0.1230793123707989</v>
+        <v>-0.1697741834307728</v>
       </c>
       <c r="AE30" t="n">
-        <v>-0.09826323424113892</v>
+        <v>-0.04628050643928849</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>96.89599677633403</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>-37.48027310612196</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>-14.28169616739138</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>23/09/2018</t>
+          <t>11/08/2018</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3599,307 +3875,334 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3.538961038961039</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="G31" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H31" t="n">
-        <v>14</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>6.4</v>
+        <v>4.4</v>
       </c>
       <c r="J31" t="n">
-        <v>12.2</v>
+        <v>11</v>
       </c>
       <c r="K31" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>2.337662337662338</v>
+        <v>0.4545454545454546</v>
       </c>
       <c r="O31" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="P31" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.4</v>
+        <v>7.2</v>
       </c>
       <c r="R31" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="S31" t="n">
-        <v>10.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T31" t="n">
         <v>3.6</v>
       </c>
       <c r="U31" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="V31" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0.6069251298904419</v>
+        <v>0.4089475274085999</v>
       </c>
       <c r="X31" t="n">
-        <v>0.2390581518411636</v>
+        <v>0.2934333086013794</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.1540167331695557</v>
+        <v>0.2976191341876984</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.269763972484084</v>
+        <v>0.1714223197401433</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.4258117808156436</v>
+        <v>0.4236124580369214</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.3044242467002724</v>
+        <v>0.4049652222229352</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.3371611574063579</v>
+        <v>0.2375252076684566</v>
       </c>
       <c r="AD31" t="n">
-        <v>-0.1867536289744799</v>
+        <v>-0.130179149435542</v>
       </c>
       <c r="AE31" t="n">
-        <v>-0.1504075135307167</v>
+        <v>-0.1073460880352368</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>138.5614242232387</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-30.73071789220037</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-26.50748314781023</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>01/09/2018</t>
+          <t>23/09/2018</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>Everton</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Huddersfield</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E32" t="n">
+        <v>3.538961038961039</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H32" t="n">
+        <v>14</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J32" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>2.337662337662338</v>
       </c>
-      <c r="F32" t="n">
+      <c r="O32" t="n">
         <v>1.6</v>
       </c>
-      <c r="G32" t="n">
+      <c r="P32" t="n">
         <v>1.2</v>
       </c>
-      <c r="H32" t="n">
+      <c r="Q32" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
         <v>10.6</v>
       </c>
-      <c r="I32" t="n">
-        <v>5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M32" t="n">
+      <c r="T32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V32" t="n">
         <v>0.4</v>
       </c>
-      <c r="N32" t="n">
-        <v>0.8441558441558441</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S32" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="T32" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0.2</v>
-      </c>
       <c r="W32" t="n">
-        <v>0.4719012379646301</v>
+        <v>0.611750602722168</v>
       </c>
       <c r="X32" t="n">
-        <v>0.2902710437774658</v>
+        <v>0.2305290997028351</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.2378277033567429</v>
+        <v>0.1577203422784805</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.2636597518405216</v>
+        <v>0.269763972484084</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.4663039902282941</v>
+        <v>0.4258117808156436</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.2700362579311843</v>
+        <v>0.3044242467002724</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.2082414861241085</v>
+        <v>0.341986630238084</v>
       </c>
       <c r="AD32" t="n">
-        <v>-0.1760329464508283</v>
+        <v>-0.1952826811128085</v>
       </c>
       <c r="AE32" t="n">
-        <v>-0.03220855457444144</v>
+        <v>-0.1467039044217919</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>126.7725364098651</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>-45.86126779741603</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>-48.19061096872235</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>03/02/2019</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Huddersfield</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4.61038961038961</v>
+        <v>2.337662337662338</v>
       </c>
       <c r="F33" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="G33" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H33" t="n">
-        <v>14.2</v>
+        <v>10.6</v>
       </c>
       <c r="I33" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>8.800000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="K33" t="n">
-        <v>6.8</v>
+        <v>3.8</v>
       </c>
       <c r="L33" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N33" t="n">
-        <v>3.636363636363637</v>
+        <v>0.8441558441558441</v>
       </c>
       <c r="O33" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="P33" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>12.6</v>
+        <v>7.4</v>
       </c>
       <c r="R33" t="n">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="S33" t="n">
-        <v>11.4</v>
+        <v>8.4</v>
       </c>
       <c r="T33" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="U33" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W33" t="n">
-        <v>0.5628911256790161</v>
+        <v>0.5051583647727966</v>
       </c>
       <c r="X33" t="n">
-        <v>0.2542129158973694</v>
+        <v>0.2753956019878387</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.1828959137201309</v>
+        <v>0.2194460034370422</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.3401121201057207</v>
+        <v>0.2636597518405216</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.3927681430084642</v>
+        <v>0.4663039902282941</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.2671197368858151</v>
+        <v>0.2700362579311843</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.2227790055732954</v>
+        <v>0.241498612932275</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.1385552271110948</v>
+        <v>-0.1909083882404554</v>
       </c>
       <c r="AE33" t="n">
-        <v>-0.08422382316568416</v>
+        <v>-0.05059025449414206</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>91.59479641714483</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>-40.94075801216928</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>-18.73461544820934</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>25/08/2018</t>
+          <t>12/05/2019</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3908,25 +4211,25 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3.831168831168831</v>
+        <v>2.207792207792208</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
       </c>
       <c r="H34" t="n">
-        <v>17.2</v>
+        <v>11</v>
       </c>
       <c r="I34" t="n">
-        <v>6.4</v>
+        <v>3.6</v>
       </c>
       <c r="J34" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="K34" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="L34" t="n">
         <v>1</v>
@@ -3935,167 +4238,185 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0.4545454545454546</v>
+        <v>0.7467532467532467</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P34" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.2</v>
+        <v>13.6</v>
       </c>
       <c r="R34" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="T34" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="U34" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0.6530102491378784</v>
+        <v>0.4241611063480377</v>
       </c>
       <c r="X34" t="n">
-        <v>0.2257999330759048</v>
+        <v>0.2885730862617493</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.1211898177862167</v>
+        <v>0.2872657775878906</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.4224784315688654</v>
+        <v>0.2182784697526427</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.4041024742500282</v>
+        <v>0.3845700062512208</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.1734190941811063</v>
+        <v>0.3971515239961365</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.230531817569013</v>
+        <v>0.205882636595395</v>
       </c>
       <c r="AD34" t="n">
-        <v>-0.1783025411741234</v>
+        <v>-0.09599691998947152</v>
       </c>
       <c r="AE34" t="n">
-        <v>-0.05222927639488956</v>
+        <v>-0.1098857464082459</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>94.32109214834846</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-24.96214432457882</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>-27.66846902728109</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>27/10/2018</t>
+          <t>03/02/2019</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2.402597402597403</v>
+        <v>4.61038961038961</v>
       </c>
       <c r="F35" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H35" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J35" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="K35" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.636363636363637</v>
+      </c>
+      <c r="O35" t="n">
         <v>1.8</v>
       </c>
-      <c r="G35" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H35" t="n">
-        <v>12</v>
-      </c>
-      <c r="I35" t="n">
-        <v>5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>10</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1.493506493506493</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.2</v>
-      </c>
       <c r="P35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="T35" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U35" t="n">
         <v>1.4</v>
       </c>
-      <c r="Q35" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="R35" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="S35" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="T35" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="U35" t="n">
-        <v>2.4</v>
-      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.4697442352771759</v>
+        <v>0.58428555727005</v>
       </c>
       <c r="X35" t="n">
-        <v>0.2829762995243073</v>
+        <v>0.2373095005750656</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.2472794204950333</v>
+        <v>0.1784049421548843</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.1884072016198693</v>
+        <v>0.3401121201057207</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.417346254222238</v>
+        <v>0.3927681430084642</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.3942465441578926</v>
+        <v>0.2671197368858151</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.2813370336573066</v>
+        <v>0.2441734371643293</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.1343699546979307</v>
+        <v>-0.1554586424333986</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.1469671236628594</v>
+        <v>-0.08871479473093075</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>71.79204230899806</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>-39.58025751341254</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>-33.2116210375175</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>31/03/2019</t>
+          <t>25/08/2018</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4105,7 +4426,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -4114,204 +4435,222 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4.220779220779221</v>
+        <v>3.831168831168831</v>
       </c>
       <c r="F36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J36" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K36" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.4545454545454546</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="R36" t="n">
         <v>2.2</v>
       </c>
-      <c r="G36" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H36" t="n">
-        <v>15</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="K36" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>3.116883116883117</v>
-      </c>
-      <c r="O36" t="n">
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U36" t="n">
         <v>1.2</v>
       </c>
-      <c r="P36" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="R36" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="S36" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="T36" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="U36" t="n">
-        <v>2.4</v>
-      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0.5824206471443176</v>
+        <v>0.6937587857246399</v>
       </c>
       <c r="X36" t="n">
-        <v>0.2497297823429108</v>
+        <v>0.1963712424039841</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.1678495854139328</v>
+        <v>0.1098699420690536</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.2594807254327272</v>
+        <v>0.4224784315688654</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.4277951967466647</v>
+        <v>0.4041024742500282</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.3127240778206081</v>
+        <v>0.1734190941811063</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.3229399217115904</v>
+        <v>0.2712803541557745</v>
       </c>
       <c r="AD36" t="n">
-        <v>-0.178065414403754</v>
+        <v>-0.2077312318460441</v>
       </c>
       <c r="AE36" t="n">
-        <v>-0.1448744924066753</v>
+        <v>-0.06354915211205264</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>64.21164582257613</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>-51.40558276253356</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>-36.64484145309081</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>01/09/2018</t>
+          <t>27/10/2018</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>West Ham</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Wolves</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E37" t="n">
+        <v>2.402597402597403</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>10</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N37" t="n">
         <v>1.493506493506493</v>
       </c>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H37" t="n">
+      <c r="O37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q37" t="n">
         <v>10.6</v>
       </c>
-      <c r="I37" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J37" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L37" t="n">
+      <c r="R37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="T37" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="U37" t="n">
         <v>2.4</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>1.428571428571428</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>10</v>
-      </c>
-      <c r="R37" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>9</v>
-      </c>
-      <c r="T37" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0.8</v>
-      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.3783482909202576</v>
+        <v>0.4776742160320282</v>
       </c>
       <c r="X37" t="n">
-        <v>0.2984538078308105</v>
+        <v>0.2777482271194458</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.3231978714466095</v>
+        <v>0.244577556848526</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.164101376887505</v>
+        <v>0.1884072016198693</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.3851823985276159</v>
+        <v>0.417346254222238</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.4507162245848791</v>
+        <v>0.3942465441578926</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.2142469140327526</v>
+        <v>0.2892670144121589</v>
       </c>
       <c r="AD37" t="n">
-        <v>-0.08672859069680533</v>
+        <v>-0.1395980271027922</v>
       </c>
       <c r="AE37" t="n">
-        <v>-0.1275183531382696</v>
+        <v>-0.1496689873093666</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>153.5328861769225</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>-33.44897089419086</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>-37.96329721267648</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>14/01/2019</t>
+          <t>31/03/2019</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4320,194 +4659,212 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4.61038961038961</v>
+        <v>4.220779220779221</v>
       </c>
       <c r="F38" t="n">
         <v>2.2</v>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H38" t="n">
-        <v>13.2</v>
+        <v>15</v>
       </c>
       <c r="I38" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="K38" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="M38" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1.883116883116883</v>
+        <v>3.116883116883117</v>
       </c>
       <c r="O38" t="n">
         <v>1.2</v>
       </c>
       <c r="P38" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="Q38" t="n">
-        <v>10.8</v>
+        <v>12.8</v>
       </c>
       <c r="R38" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="S38" t="n">
-        <v>8.800000000000001</v>
+        <v>12.2</v>
       </c>
       <c r="T38" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="U38" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.7081098556518555</v>
+        <v>0.6067691445350647</v>
       </c>
       <c r="X38" t="n">
-        <v>0.1971778869628906</v>
+        <v>0.2303281724452972</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.09471231698989868</v>
+        <v>0.1629026681184769</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.4167950619905854</v>
+        <v>0.2594807254327272</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.3936744963329367</v>
+        <v>0.4277951967466647</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.1895304416764778</v>
+        <v>0.3127240778206081</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.2913147936612701</v>
+        <v>0.3472884191023375</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.1964966093700461</v>
+        <v>-0.1974670243013675</v>
       </c>
       <c r="AE38" t="n">
-        <v>-0.09481812468657913</v>
+        <v>-0.1498214097021313</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>133.8397750057066</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>-46.15924297492875</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>-47.90849836259657</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>18/08/2018</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2.337662337662338</v>
+        <v>1.493506493506493</v>
       </c>
       <c r="F39" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H39" t="n">
-        <v>9</v>
+        <v>10.6</v>
       </c>
       <c r="I39" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="J39" t="n">
-        <v>10.4</v>
+        <v>11.6</v>
       </c>
       <c r="K39" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="L39" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="M39" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>1.428571428571428</v>
       </c>
       <c r="O39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>10</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>9</v>
+      </c>
+      <c r="T39" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U39" t="n">
         <v>0.8</v>
       </c>
-      <c r="P39" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="T39" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="U39" t="n">
-        <v>2.6</v>
-      </c>
       <c r="V39" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0.4257527887821198</v>
+        <v>0.4058566093444824</v>
       </c>
       <c r="X39" t="n">
-        <v>0.2928339838981628</v>
+        <v>0.2947318851947784</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.2814132869243622</v>
+        <v>0.2994115054607391</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.1960916248715082</v>
+        <v>0.164101376887505</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.4488067753611772</v>
+        <v>0.3851823985276159</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.3551015997673146</v>
+        <v>0.4507162245848791</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.2296611639106116</v>
+        <v>0.2417552324569774</v>
       </c>
       <c r="AD39" t="n">
-        <v>-0.1559727914630143</v>
+        <v>-0.09045051333283743</v>
       </c>
       <c r="AE39" t="n">
-        <v>-0.07368831284295241</v>
+        <v>-0.15130471912414</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>147.3206605833087</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>-23.48251469397103</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>-33.56984081580276</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>15/12/2018</t>
+          <t>14/01/2019</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4517,7 +4874,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4526,101 +4883,110 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4.675324675324675</v>
+        <v>4.61038961038961</v>
       </c>
       <c r="F40" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="G40" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H40" t="n">
-        <v>14.2</v>
+        <v>13.2</v>
       </c>
       <c r="I40" t="n">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="J40" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K40" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N40" t="n">
-        <v>2.337662337662338</v>
+        <v>1.883116883116883</v>
       </c>
       <c r="O40" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="P40" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="Q40" t="n">
-        <v>12.4</v>
+        <v>10.8</v>
       </c>
       <c r="R40" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="S40" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T40" t="n">
-        <v>6.6</v>
+        <v>3.2</v>
       </c>
       <c r="U40" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.7029841542243958</v>
+        <v>0.7137356400489807</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1995727121829987</v>
+        <v>0.1869507282972336</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.09744317084550858</v>
+        <v>0.09931360930204391</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.3933788567781544</v>
+        <v>0.4167950619905854</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.3936515946035148</v>
+        <v>0.3936744963329367</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.2129695486183307</v>
+        <v>0.1895304416764778</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.3096052974462414</v>
+        <v>0.2969405780583953</v>
       </c>
       <c r="AD40" t="n">
-        <v>-0.1940788824205161</v>
+        <v>-0.2067237680357031</v>
       </c>
       <c r="AE40" t="n">
-        <v>-0.1155263777728221</v>
+        <v>-0.0902168323744339</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>71.24378504875439</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>-52.5113437525995</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>-47.60018051793023</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>28/10/2018</t>
+          <t>18/08/2018</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Man United</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4629,101 +4995,110 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3.181818181818182</v>
+        <v>2.337662337662338</v>
       </c>
       <c r="F41" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="G41" t="n">
         <v>1.6</v>
       </c>
       <c r="H41" t="n">
-        <v>11.6</v>
+        <v>9</v>
       </c>
       <c r="I41" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="J41" t="n">
-        <v>12.2</v>
+        <v>10.4</v>
       </c>
       <c r="K41" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="M41" t="n">
         <v>0.2</v>
       </c>
       <c r="N41" t="n">
-        <v>2.337662337662338</v>
+        <v>1.428571428571428</v>
       </c>
       <c r="O41" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P41" t="n">
         <v>1.6</v>
       </c>
-      <c r="P41" t="n">
-        <v>1.8</v>
-      </c>
       <c r="Q41" t="n">
-        <v>16.2</v>
+        <v>12.8</v>
       </c>
       <c r="R41" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="S41" t="n">
-        <v>12.8</v>
+        <v>11.4</v>
       </c>
       <c r="T41" t="n">
-        <v>9</v>
+        <v>4.8</v>
       </c>
       <c r="U41" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W41" t="n">
-        <v>0.5288634896278381</v>
+        <v>0.4420420527458191</v>
       </c>
       <c r="X41" t="n">
-        <v>0.2639217972755432</v>
+        <v>0.2867427468299866</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.2072148025035858</v>
+        <v>0.2712152302265167</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.2249042356385522</v>
+        <v>0.1960916248715082</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.4374948738347362</v>
+        <v>0.4488067753611772</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.3376008905267116</v>
+        <v>0.3551015997673146</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.3039592539892859</v>
+        <v>0.2459504278743109</v>
       </c>
       <c r="AD41" t="n">
-        <v>-0.173573076559193</v>
+        <v>-0.1620640285311906</v>
       </c>
       <c r="AE41" t="n">
-        <v>-0.1303860880231258</v>
+        <v>-0.08388636954079787</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>125.4262786773649</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>-36.10997815279629</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>-23.62320237243809</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>19/01/2019</t>
+          <t>15/12/2018</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Man United</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -4732,394 +5107,654 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3.116883116883117</v>
+        <v>4.675324675324675</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H42" t="n">
-        <v>14.6</v>
+        <v>14.2</v>
       </c>
       <c r="I42" t="n">
-        <v>8.4</v>
+        <v>5.6</v>
       </c>
       <c r="J42" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="K42" t="n">
-        <v>4.4</v>
+        <v>7.6</v>
       </c>
       <c r="L42" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="M42" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0.6168831168831169</v>
+        <v>2.337662337662338</v>
       </c>
       <c r="O42" t="n">
         <v>0.8</v>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Q42" t="n">
-        <v>10.6</v>
+        <v>12.4</v>
       </c>
       <c r="R42" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="S42" t="n">
-        <v>12.8</v>
+        <v>10</v>
       </c>
       <c r="T42" t="n">
-        <v>4.4</v>
+        <v>6.6</v>
       </c>
       <c r="U42" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="V42" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0.6351696252822876</v>
+        <v>0.718335747718811</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2299961000680923</v>
+        <v>0.1851275116205215</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1348342299461365</v>
+        <v>0.09653674066066742</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.3432523593195986</v>
+        <v>0.3933788567781544</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.4333684686395278</v>
+        <v>0.3936515946035148</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.2233791720408737</v>
+        <v>0.2129695486183307</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.291917265962689</v>
+        <v>0.3249568909406567</v>
       </c>
       <c r="AD42" t="n">
-        <v>-0.2033723685714355</v>
+        <v>-0.2085240829829932</v>
       </c>
       <c r="AE42" t="n">
-        <v>-0.08854494209473723</v>
+        <v>-0.1164328079576633</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>82.60659802667428</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>-52.97173588056167</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>-54.6711061337347</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>22/04/2019</t>
+          <t>28/10/2018</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Man United</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.376623376623376</v>
+        <v>3.181818181818182</v>
       </c>
       <c r="F43" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="G43" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H43" t="n">
-        <v>15.2</v>
+        <v>11.6</v>
       </c>
       <c r="I43" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
-        <v>9</v>
+        <v>12.2</v>
       </c>
       <c r="K43" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="L43" t="n">
+        <v>2</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.337662337662338</v>
+      </c>
+      <c r="O43" t="n">
         <v>1.6</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>1.883116883116883</v>
-      </c>
-      <c r="O43" t="n">
-        <v>2</v>
       </c>
       <c r="P43" t="n">
         <v>1.8</v>
       </c>
       <c r="Q43" t="n">
-        <v>9.199999999999999</v>
+        <v>16.2</v>
       </c>
       <c r="R43" t="n">
-        <v>3</v>
+        <v>5.6</v>
       </c>
       <c r="S43" t="n">
-        <v>10.2</v>
+        <v>12.8</v>
       </c>
       <c r="T43" t="n">
-        <v>5.4</v>
+        <v>9</v>
       </c>
       <c r="U43" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.6438429355621338</v>
+        <v>0.5295895934104919</v>
       </c>
       <c r="X43" t="n">
-        <v>0.2271340787410736</v>
+        <v>0.2602070271968842</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.1290230751037598</v>
+        <v>0.2102033346891403</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.3927848164513487</v>
+        <v>0.2249042356385522</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.4081780141502573</v>
+        <v>0.4374948738347362</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.1990371693983941</v>
+        <v>0.3376008905267116</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.2510581191107851</v>
+        <v>0.3046853577719397</v>
       </c>
       <c r="AD43" t="n">
-        <v>-0.1810439354091837</v>
+        <v>-0.177287846637852</v>
       </c>
       <c r="AE43" t="n">
-        <v>-0.07001409429463434</v>
+        <v>-0.1273975558375713</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>135.4733746596063</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>-40.52341118511541</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>-37.73614330187656</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>15/08/2015</t>
+          <t>19/01/2019</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Man United</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1.428571428571428</v>
+        <v>3.116883116883117</v>
       </c>
       <c r="F44" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="I44" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J44" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="K44" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.6168831168831169</v>
+      </c>
+      <c r="O44" t="n">
         <v>0.8</v>
       </c>
-      <c r="G44" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H44" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J44" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K44" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>3.051948051948052</v>
-      </c>
-      <c r="O44" t="n">
-        <v>2.8</v>
-      </c>
       <c r="P44" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>16.2</v>
+        <v>10.6</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="S44" t="n">
-        <v>11.4</v>
+        <v>12.8</v>
       </c>
       <c r="T44" t="n">
-        <v>6.8</v>
+        <v>4.4</v>
       </c>
       <c r="U44" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W44" t="n">
-        <v>0.2288893163204193</v>
+        <v>0.6647847890853882</v>
       </c>
       <c r="X44" t="n">
-        <v>0.2598174512386322</v>
+        <v>0.2131295055150986</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.5112932324409485</v>
+        <v>0.1220857203006744</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.4269501661623996</v>
+        <v>0.3432523593195986</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.2846936967424976</v>
+        <v>0.4333684686395278</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.2883561370951027</v>
+        <v>0.2233791720408737</v>
       </c>
       <c r="AC44" t="n">
-        <v>-0.1980608498419803</v>
+        <v>0.3215324297657896</v>
       </c>
       <c r="AD44" t="n">
-        <v>-0.02487624550386541</v>
+        <v>-0.2202389631244293</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.2229370953458458</v>
+        <v>-0.1012934517401993</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>93.67231456271338</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>-50.82025552431737</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>-45.34596973153106</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>22/04/2019</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.8441558441558441</v>
+        <v>3.376623376623376</v>
       </c>
       <c r="F45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H45" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>9</v>
+      </c>
+      <c r="K45" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L45" t="n">
         <v>1.6</v>
       </c>
-      <c r="G45" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H45" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K45" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.4</v>
-      </c>
       <c r="M45" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>2.272727272727272</v>
+        <v>1.883116883116883</v>
       </c>
       <c r="O45" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="P45" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q45" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="R45" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="S45" t="n">
-        <v>10.6</v>
+        <v>10.2</v>
       </c>
       <c r="T45" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="U45" t="n">
         <v>1.4</v>
       </c>
       <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.6533697843551636</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.2134673148393631</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.1331628710031509</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.3927848164513487</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.4081780141502573</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.1990371693983941</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.2605849679038149</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>-0.1947106993108942</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>-0.06587429839524317</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>66.34293307416876</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>-47.70239762086202</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>-33.09648071983416</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>15/08/2015</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1.428571428571428</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K46" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3.051948051948052</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="T46" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.2266311943531036</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.2650008499622345</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.5083679556846619</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.4269501661623996</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0.2846936967424976</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0.2883561370951027</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>-0.200318971809296</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>-0.01969284678026312</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0.2200118185895591</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>-46.91858387358031</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>-6.917205054271042</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>76.29864264584633</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0.8441558441558441</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H47" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K47" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M47" t="n">
         <v>0.2</v>
       </c>
-      <c r="W45" t="n">
-        <v>0.3839229047298431</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0.2952398359775543</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0.3208372890949249</v>
-      </c>
-      <c r="Z45" t="n">
+      <c r="N47" t="n">
+        <v>2.272727272727272</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>12</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="T47" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.3931068181991577</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.2911533117294312</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.3157398700714111</v>
+      </c>
+      <c r="Z47" t="n">
         <v>0.1764212887265453</v>
       </c>
-      <c r="AA45" t="n">
+      <c r="AA47" t="n">
         <v>0.4002643758921188</v>
       </c>
-      <c r="AB45" t="n">
+      <c r="AB47" t="n">
         <v>0.4233143353813358</v>
       </c>
-      <c r="AC45" t="n">
-        <v>0.2075016160032978</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>-0.1050245399145645</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>-0.1024770462864109</v>
+      <c r="AC47" t="n">
+        <v>0.2166855294726124</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>-0.1091110641626876</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>-0.1075744653099246</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>122.8227789495842</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-27.25974898952681</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>-25.41243145309926</v>
       </c>
     </row>
   </sheetData>

--- a/Fase3_ValueBettingAnalysis/NeuralNetworkOutliers/PercentagePointDifference/20pointDifferenceOutliers.xlsx
+++ b/Fase3_ValueBettingAnalysis/NeuralNetworkOutliers/PercentagePointDifference/20pointDifferenceOutliers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH47"/>
+  <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,13 +681,13 @@
         <v>0.2</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6509307622909546</v>
+        <v>0.6608967185020447</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2135529071092606</v>
+        <v>0.2107896357774734</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1355163156986237</v>
+        <v>0.1283136308193207</v>
       </c>
       <c r="Z2" t="n">
         <v>0.3143562518529746</v>
@@ -699,22 +699,22 @@
         <v>0.2602437356586661</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.33657451043798</v>
+        <v>0.3465404666490701</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.2118471053790987</v>
+        <v>-0.2146103767108858</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.1247274199600424</v>
+        <v>-0.1319301048393454</v>
       </c>
       <c r="AF2" t="n">
-        <v>107.0678596191549</v>
+        <v>110.2381341571499</v>
       </c>
       <c r="AG2" t="n">
-        <v>-49.79950614949635</v>
+        <v>-50.44907626013727</v>
       </c>
       <c r="AH2" t="n">
-        <v>-47.92715553531481</v>
+        <v>-50.69482441351981</v>
       </c>
     </row>
     <row r="3">
@@ -793,13 +793,13 @@
         <v>0.2</v>
       </c>
       <c r="W3" t="n">
-        <v>0.574128270149231</v>
+        <v>0.583031177520752</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2473982125520706</v>
+        <v>0.2447604238986969</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1784735023975372</v>
+        <v>0.1722083687782288</v>
       </c>
       <c r="Z3" t="n">
         <v>0.2890639689963178</v>
@@ -811,22 +811,22 @@
         <v>0.288171160348907</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2850643011529131</v>
+        <v>0.2939672085244341</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.1753666581027045</v>
+        <v>-0.1780044467560782</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.1096976579513698</v>
+        <v>-0.1159627915706782</v>
       </c>
       <c r="AF3" t="n">
-        <v>98.61633815612086</v>
+        <v>101.6962472165387</v>
       </c>
       <c r="AG3" t="n">
-        <v>-41.48089642147842</v>
+        <v>-42.10483394241963</v>
       </c>
       <c r="AH3" t="n">
-        <v>-38.06684118513174</v>
+        <v>-40.24094271969297</v>
       </c>
     </row>
     <row r="4">
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6785430312156677</v>
+        <v>0.696706235408783</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2025997191667557</v>
+        <v>0.1942195147275925</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.11885716766119</v>
+        <v>0.1090742126107216</v>
       </c>
       <c r="Z4" t="n">
         <v>0.4566793997742092</v>
@@ -923,22 +923,22 @@
         <v>0.1790813753668759</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.2218636314414585</v>
+        <v>0.2400268356345738</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.1616395056921592</v>
+        <v>-0.1700197101313224</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.06022420770568587</v>
+        <v>-0.07000716275615432</v>
       </c>
       <c r="AF4" t="n">
-        <v>48.58192236197912</v>
+        <v>52.55915544980735</v>
       </c>
       <c r="AG4" t="n">
-        <v>-44.37729235635425</v>
+        <v>-46.67803424992961</v>
       </c>
       <c r="AH4" t="n">
-        <v>-33.62952042461549</v>
+        <v>-39.092374967935</v>
       </c>
     </row>
     <row r="5">
@@ -1017,13 +1017,13 @@
         <v>0.2</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3679454028606415</v>
+        <v>0.3746536374092102</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2901263833045959</v>
+        <v>0.2961562871932983</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3419282138347626</v>
+        <v>0.3291901051998138</v>
       </c>
       <c r="Z5" t="n">
         <v>0.1572909682061864</v>
@@ -1035,22 +1035,22 @@
         <v>0.471956436731255</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.2106544346544551</v>
+        <v>0.2173626692030238</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.08062621175796264</v>
+        <v>-0.07459630786926025</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.1300282228964924</v>
+        <v>-0.1427663315314411</v>
       </c>
       <c r="AF5" t="n">
-        <v>133.9265928977668</v>
+        <v>138.1914496947414</v>
       </c>
       <c r="AG5" t="n">
-        <v>-21.7466345028167</v>
+        <v>-20.12023890397134</v>
       </c>
       <c r="AH5" t="n">
-        <v>-27.55089512012187</v>
+        <v>-30.24989605401573</v>
       </c>
     </row>
     <row r="6">
@@ -1129,13 +1129,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.6446380615234375</v>
+        <v>0.6515154242515564</v>
       </c>
       <c r="X6" t="n">
-        <v>0.220141589641571</v>
+        <v>0.2179467082023621</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1352203637361526</v>
+        <v>0.1305378526449203</v>
       </c>
       <c r="Z6" t="n">
         <v>0.2962041139150656</v>
@@ -1147,22 +1147,22 @@
         <v>0.281794533329756</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3484339476083719</v>
+        <v>0.3553113103364908</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.2018597631136074</v>
+        <v>-0.2040546445528164</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.1465741695936034</v>
+        <v>-0.1512566806848357</v>
       </c>
       <c r="AF6" t="n">
-        <v>117.6330547887943</v>
+        <v>119.9548870676299</v>
       </c>
       <c r="AG6" t="n">
-        <v>-47.83391375304787</v>
+        <v>-48.354026170906</v>
       </c>
       <c r="AH6" t="n">
-        <v>-52.01455395945607</v>
+        <v>-53.67622959095344</v>
       </c>
     </row>
     <row r="7">
@@ -1241,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.5987902879714966</v>
+        <v>0.5967223644256592</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2358331680297852</v>
+        <v>0.2387918680906296</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1653765439987183</v>
+        <v>0.1644857674837112</v>
       </c>
       <c r="Z7" t="n">
         <v>0.2729387142374602</v>
@@ -1259,22 +1259,22 @@
         <v>0.2767748170377056</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3258515737340364</v>
+        <v>0.323783650188199</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.214453300695049</v>
+        <v>-0.2114946006342046</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.1113982730389874</v>
+        <v>-0.1122890495539944</v>
       </c>
       <c r="AF7" t="n">
-        <v>119.3863518571943</v>
+        <v>118.6287006197674</v>
       </c>
       <c r="AG7" t="n">
-        <v>-47.62597048549097</v>
+        <v>-46.96889987237146</v>
       </c>
       <c r="AH7" t="n">
-        <v>-40.24870262087874</v>
+        <v>-40.57054422646299</v>
       </c>
     </row>
     <row r="8">
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8026657700538635</v>
+        <v>0.806554913520813</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1398382633924484</v>
+        <v>0.1382298618555069</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.05749594792723656</v>
+        <v>0.05521528422832489</v>
       </c>
       <c r="Z8" t="n">
         <v>0.5050918173100506</v>
@@ -1371,38 +1371,38 @@
         <v>0.1424659780590271</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.2975739527438129</v>
+        <v>0.3014630962107624</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.2126039412384739</v>
+        <v>-0.2142123427754154</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.08497003013179055</v>
+        <v>-0.08725069383070222</v>
       </c>
       <c r="AF8" t="n">
-        <v>58.91482351240451</v>
+        <v>59.68481093521839</v>
       </c>
       <c r="AG8" t="n">
-        <v>-60.32306529835518</v>
+        <v>-60.77942424623598</v>
       </c>
       <c r="AH8" t="n">
-        <v>-59.64233095468268</v>
+        <v>-61.24317891149572</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>22/08/2021</t>
+          <t>15/05/04</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Man United</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1411,660 +1411,660 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3.831168831168831</v>
+        <v>1.915584415584416</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
-        <v>12.8</v>
+        <v>10.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="J9" t="n">
-        <v>7.6</v>
+        <v>13.6</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.636363636363637</v>
+      </c>
+      <c r="O9" t="n">
         <v>0.6</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.116883116883117</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.6</v>
-      </c>
       <c r="P9" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>16.8</v>
+        <v>12.2</v>
       </c>
       <c r="R9" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="S9" t="n">
-        <v>11.8</v>
+        <v>11.2</v>
       </c>
       <c r="T9" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.4307619035243988</v>
+        <v>0.2326173037290573</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2868267893791199</v>
+        <v>0.2629014253616333</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.2824113368988037</v>
+        <v>0.504481315612793</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.1979228682939737</v>
+        <v>0.4282432979316832</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.2566646821459284</v>
+        <v>0.2716812320211754</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.5454124495600979</v>
+        <v>0.3000754700471414</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.2328390352304251</v>
+        <v>-0.1956259942026259</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.03016210723319146</v>
+        <v>-0.008779806659542089</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.2630011126612942</v>
+        <v>0.2044058455656516</v>
       </c>
       <c r="AF9" t="n">
-        <v>117.6412999859069</v>
+        <v>-45.68104046168487</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.75156121247823</v>
+        <v>-3.231657407552456</v>
       </c>
       <c r="AH9" t="n">
-        <v>-48.22059211765657</v>
+        <v>68.11814558968771</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>27/02/2019</t>
+          <t>22/08/2021</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4.61038961038961</v>
+        <v>3.831168831168831</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="n">
         <v>2.4</v>
       </c>
       <c r="H10" t="n">
-        <v>14.6</v>
+        <v>12.8</v>
       </c>
       <c r="I10" t="n">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="K10" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="L10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.116883116883117</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.6</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.363636363636364</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="S10" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="T10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="S10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="T10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.8</v>
-      </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W10" t="n">
-        <v>0.7772766947746277</v>
+        <v>0.4212462604045868</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1553220003843307</v>
+        <v>0.2829718291759491</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.06740126013755798</v>
+        <v>0.2957818806171417</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.4524206900186175</v>
+        <v>0.1979228682939737</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.3752872575035762</v>
+        <v>0.2566646821459284</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.1722920524778064</v>
+        <v>0.5454124495600979</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.3248560047560102</v>
+        <v>0.2233233921106131</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.2199652571192455</v>
+        <v>0.02630714703002068</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.1048907923402484</v>
+        <v>-0.2496305689429562</v>
       </c>
       <c r="AF10" t="n">
-        <v>71.8039673965048</v>
+        <v>112.833546742518</v>
       </c>
       <c r="AG10" t="n">
-        <v>-58.6125035479387</v>
+        <v>10.2496170529078</v>
       </c>
       <c r="AH10" t="n">
-        <v>-60.87964640955206</v>
+        <v>-45.76913657623613</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>21/04/2019</t>
+          <t>27/02/2019</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.636363636363637</v>
+        <v>4.61038961038961</v>
       </c>
       <c r="F11" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
-        <v>11.2</v>
+        <v>14.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3.8</v>
+        <v>6.6</v>
       </c>
       <c r="J11" t="n">
-        <v>10.8</v>
+        <v>8.4</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>2.207792207792208</v>
+        <v>1.363636363636364</v>
       </c>
       <c r="O11" t="n">
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S11" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="R11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S11" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="T11" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="U11" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.6194396018981934</v>
+        <v>0.7797143459320068</v>
       </c>
       <c r="X11" t="n">
-        <v>0.2309439331293106</v>
+        <v>0.1545599550008774</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1496164947748184</v>
+        <v>0.0657256618142128</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.2830072236890522</v>
+        <v>0.4524206900186175</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.4206162407121692</v>
+        <v>0.3752872575035762</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.2963765355987786</v>
+        <v>0.1722920524778064</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.3364323782091412</v>
+        <v>0.3272936559133893</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.1896723075828586</v>
+        <v>-0.2207273025026988</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.1467600408239602</v>
+        <v>-0.1065663906635936</v>
       </c>
       <c r="AF11" t="n">
-        <v>118.8776646135325</v>
+        <v>72.34276927076895</v>
       </c>
       <c r="AG11" t="n">
-        <v>-45.09390965544118</v>
+        <v>-58.8155601048073</v>
       </c>
       <c r="AH11" t="n">
-        <v>-49.51810389694189</v>
+        <v>-61.85218013890735</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12/01/2019</t>
+          <t>21/04/2019</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.883116883116883</v>
+        <v>3.636363636363637</v>
       </c>
       <c r="F12" t="n">
         <v>1.2</v>
       </c>
       <c r="G12" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="I12" t="n">
         <v>3.8</v>
       </c>
       <c r="J12" t="n">
-        <v>11.4</v>
+        <v>10.8</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4545454545454546</v>
+        <v>2.207792207792208</v>
       </c>
       <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U12" t="n">
         <v>0.6</v>
       </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="R12" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="S12" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2</v>
-      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.4512029886245728</v>
+        <v>0.6233481764793396</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2866727411746979</v>
+        <v>0.2296731024980545</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.2621242105960846</v>
+        <v>0.1469787061214447</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.1737173237163191</v>
+        <v>0.2830072236890522</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.4119176340188412</v>
+        <v>0.4206162407121692</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.4143650422648397</v>
+        <v>0.2963765355987786</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2774856649082537</v>
+        <v>0.3403409527902874</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.1252448928441433</v>
+        <v>-0.1909431382141147</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.1522408316687551</v>
+        <v>-0.1493978294773339</v>
       </c>
       <c r="AF12" t="n">
-        <v>159.7340201725584</v>
+        <v>120.2587511208652</v>
       </c>
       <c r="AG12" t="n">
-        <v>-30.40532439026745</v>
+        <v>-45.39604507206332</v>
       </c>
       <c r="AH12" t="n">
-        <v>-36.74075178654937</v>
+        <v>-50.40811654522545</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>15/04/17</t>
+          <t>12/01/2019</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.012987012987013</v>
+        <v>1.883116883116883</v>
       </c>
       <c r="F13" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H13" t="n">
+        <v>11</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.4545454545454546</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="S13" t="n">
         <v>11.8</v>
       </c>
-      <c r="I13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.597402597402597</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="R13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="S13" t="n">
-        <v>12</v>
-      </c>
       <c r="T13" t="n">
-        <v>7.2</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2819399833679199</v>
+        <v>0.4094277620315552</v>
       </c>
       <c r="X13" t="n">
-        <v>0.2810776233673096</v>
+        <v>0.2998403012752533</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.4369824230670929</v>
+        <v>0.2907320261001587</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.5377762351035521</v>
+        <v>0.1737173237163191</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.2612055999074395</v>
+        <v>0.4119176340188412</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.2010181649890085</v>
+        <v>0.4143650422648397</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.2558362517356322</v>
+        <v>0.2357104383152361</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.01987202345987005</v>
+        <v>-0.1120773327435879</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.2359642580780844</v>
+        <v>-0.123633016164681</v>
       </c>
       <c r="AF13" t="n">
-        <v>-47.57299319602127</v>
+        <v>135.686201740105</v>
       </c>
       <c r="AG13" t="n">
-        <v>7.607809123124416</v>
+        <v>-27.20867559131043</v>
       </c>
       <c r="AH13" t="n">
-        <v>117.3845448698563</v>
+        <v>-29.83673899924731</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>16/09/2018</t>
+          <t>15/04/17</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2.337662337662338</v>
+        <v>2.012987012987013</v>
       </c>
       <c r="F14" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="G14" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
-        <v>11</v>
+        <v>11.8</v>
       </c>
       <c r="I14" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
-        <v>10.2</v>
+        <v>11.2</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1.493506493506493</v>
+        <v>2.597402597402597</v>
       </c>
       <c r="O14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>12</v>
+      </c>
+      <c r="T14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="U14" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="S14" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="T14" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.6</v>
-      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0.496292382478714</v>
+        <v>0.2875941097736359</v>
       </c>
       <c r="X14" t="n">
-        <v>0.2736426293849945</v>
+        <v>0.2849767208099365</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.2300649583339691</v>
+        <v>0.4274291396141052</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.1901203196054265</v>
+        <v>0.5377762351035521</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.4068781578506765</v>
+        <v>0.2612055999074395</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.403001522543897</v>
+        <v>0.2010181649890085</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.3061720628732875</v>
+        <v>-0.2501821253299162</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.133235528465682</v>
+        <v>0.023771120902497</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.1729365642099279</v>
+        <v>0.2264109746250967</v>
       </c>
       <c r="AF14" t="n">
-        <v>161.0412098552713</v>
+        <v>-46.52160303843515</v>
       </c>
       <c r="AG14" t="n">
-        <v>-32.74580507577385</v>
+        <v>9.100540306532672</v>
       </c>
       <c r="AH14" t="n">
-        <v>-42.91213668829024</v>
+        <v>112.6320970234091</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>21/10/2018</t>
+          <t>16/09/2018</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2074,119 +2074,119 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>2.337662337662338</v>
       </c>
       <c r="F15" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H15" t="n">
-        <v>14.4</v>
+        <v>11</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="J15" t="n">
-        <v>12.8</v>
+        <v>10.2</v>
       </c>
       <c r="K15" t="n">
-        <v>7.8</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N15" t="n">
-        <v>2.272727272727272</v>
+        <v>1.493506493506493</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.8</v>
+        <v>11.4</v>
       </c>
       <c r="R15" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="S15" t="n">
-        <v>11.8</v>
+        <v>11.2</v>
       </c>
       <c r="T15" t="n">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
       <c r="U15" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0.5201937556266785</v>
+        <v>0.5013116002082825</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2618935704231262</v>
+        <v>0.2708079218864441</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.2179126143455505</v>
+        <v>0.2278804928064346</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.209133710096302</v>
+        <v>0.1901203196054265</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.4401212211619819</v>
+        <v>0.4068781578506765</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.3507450687417161</v>
+        <v>0.403001522543897</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.3110600455303765</v>
+        <v>0.3111912806028559</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.1782276507388557</v>
+        <v>-0.1360702359642324</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.1328324543961656</v>
+        <v>-0.1751210297374624</v>
       </c>
       <c r="AF15" t="n">
-        <v>148.7374012478139</v>
+        <v>163.6812315741414</v>
       </c>
       <c r="AG15" t="n">
-        <v>-40.49512774419502</v>
+        <v>-33.44250197233982</v>
       </c>
       <c r="AH15" t="n">
-        <v>-37.87151017481064</v>
+        <v>-43.45418563980419</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20/10/2018</t>
+          <t>21/10/2018</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2195,222 +2195,222 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4.675324675324675</v>
+        <v>2.337662337662338</v>
       </c>
       <c r="F16" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="G16" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
-        <v>21.4</v>
+        <v>14.4</v>
       </c>
       <c r="I16" t="n">
-        <v>7.4</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>12.8</v>
       </c>
       <c r="K16" t="n">
         <v>7.8</v>
       </c>
       <c r="L16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.272727272727272</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P16" t="n">
         <v>0.8</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.753246753246753</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.4</v>
-      </c>
       <c r="Q16" t="n">
-        <v>7.4</v>
+        <v>12.8</v>
       </c>
       <c r="R16" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="S16" t="n">
-        <v>11.2</v>
+        <v>11.8</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="U16" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.8197962045669556</v>
+        <v>0.5288232564926147</v>
       </c>
       <c r="X16" t="n">
-        <v>0.1295108795166016</v>
+        <v>0.2610736191272736</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.05069293826818466</v>
+        <v>0.2101031541824341</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.53970906748576</v>
+        <v>0.209133710096302</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.3253181282594481</v>
+        <v>0.4401212211619819</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.1349728042547918</v>
+        <v>0.3507450687417161</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.2800871370811956</v>
+        <v>0.3196895463963128</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.1958072487428466</v>
+        <v>-0.1790476020347083</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.08427986598660714</v>
+        <v>-0.140641914559282</v>
       </c>
       <c r="AF16" t="n">
-        <v>51.89594801250686</v>
+        <v>152.8637091787364</v>
       </c>
       <c r="AG16" t="n">
-        <v>-60.18946739626085</v>
+        <v>-40.68142898495044</v>
       </c>
       <c r="AH16" t="n">
-        <v>-62.4421093211561</v>
+        <v>-40.0980447319842</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>06/10/2018</t>
+          <t>20/10/2018</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1.818181818181818</v>
+        <v>4.675324675324675</v>
       </c>
       <c r="F17" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="G17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.753246753246753</v>
+      </c>
+      <c r="O17" t="n">
         <v>1.4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.8441558441558441</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.6</v>
       </c>
       <c r="P17" t="n">
         <v>1.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>13</v>
+        <v>7.4</v>
       </c>
       <c r="R17" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="S17" t="n">
-        <v>9.4</v>
+        <v>11.2</v>
       </c>
       <c r="T17" t="n">
-        <v>5.4</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="V17" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0.4152391850948334</v>
+        <v>0.8234528303146362</v>
       </c>
       <c r="X17" t="n">
-        <v>0.2892413437366486</v>
+        <v>0.1276473850011826</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.2955194711685181</v>
+        <v>0.0488998256623745</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.1920732515564946</v>
+        <v>0.53970906748576</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.3970870315017531</v>
+        <v>0.3253181282594481</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.4108397169417525</v>
+        <v>0.1349728042547918</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.2231659335383388</v>
+        <v>0.2837437628288763</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.1078456877651046</v>
+        <v>-0.1976707432582656</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.1153202457732344</v>
+        <v>-0.0860729785924173</v>
       </c>
       <c r="AF17" t="n">
-        <v>116.1879292040302</v>
+        <v>52.57346595096121</v>
       </c>
       <c r="AG17" t="n">
-        <v>-27.15920672534692</v>
+        <v>-60.76228961351301</v>
       </c>
       <c r="AH17" t="n">
-        <v>-28.06940055154992</v>
+        <v>-63.77060850712935</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>23/02/2019</t>
+          <t>06/10/2018</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2419,100 +2419,100 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2.37012987012987</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="F18" t="n">
         <v>1.2</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="H18" t="n">
-        <v>16.2</v>
+        <v>11.6</v>
       </c>
       <c r="I18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K18" t="n">
         <v>5.8</v>
       </c>
-      <c r="J18" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="K18" t="n">
-        <v>7.2</v>
-      </c>
       <c r="L18" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>2.207792207792208</v>
+        <v>0.8441558441558441</v>
       </c>
       <c r="O18" t="n">
         <v>1.6</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>16.2</v>
+        <v>13</v>
       </c>
       <c r="R18" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="S18" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="T18" t="n">
-        <v>7.8</v>
+        <v>5.4</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="V18" t="n">
         <v>0.2</v>
       </c>
       <c r="W18" t="n">
-        <v>0.4263063073158264</v>
+        <v>0.4081504344940186</v>
       </c>
       <c r="X18" t="n">
-        <v>0.2802451550960541</v>
+        <v>0.2900968492031097</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.2934485673904419</v>
+        <v>0.3017527163028717</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.1980433115746062</v>
+        <v>0.1920732515564946</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.4134321773006678</v>
+        <v>0.3970870315017531</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.388524511124726</v>
+        <v>0.4108397169417525</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.2282629957412202</v>
+        <v>0.216077182937524</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.1331870222046137</v>
+        <v>-0.1069901822986434</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0.09507594373428413</v>
+        <v>-0.1090870006388808</v>
       </c>
       <c r="AF18" t="n">
-        <v>115.2591288876877</v>
+        <v>112.4972796506072</v>
       </c>
       <c r="AG18" t="n">
-        <v>-32.21496282031132</v>
+        <v>-26.94376139508122</v>
       </c>
       <c r="AH18" t="n">
-        <v>-24.47102847103574</v>
+        <v>-26.5522042150435</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>12/01/2019</t>
+          <t>23/02/2019</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2534,102 +2534,102 @@
         <v>2.37012987012987</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="H19" t="n">
-        <v>10.8</v>
+        <v>16.2</v>
       </c>
       <c r="I19" t="n">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="J19" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.233766233766234</v>
+        <v>2.207792207792208</v>
       </c>
       <c r="O19" t="n">
         <v>1.6</v>
       </c>
       <c r="P19" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.4</v>
+        <v>16.2</v>
       </c>
       <c r="R19" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="S19" t="n">
-        <v>10.6</v>
+        <v>9.6</v>
       </c>
       <c r="T19" t="n">
-        <v>3</v>
+        <v>7.8</v>
       </c>
       <c r="U19" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="V19" t="n">
         <v>0.2</v>
       </c>
       <c r="W19" t="n">
-        <v>0.4430721998214722</v>
+        <v>0.4006891250610352</v>
       </c>
       <c r="X19" t="n">
-        <v>0.288843959569931</v>
+        <v>0.2914443016052246</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.2680838704109192</v>
+        <v>0.3078665435314178</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.2032605434616242</v>
+        <v>0.1980433115746062</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.4352818821253043</v>
+        <v>0.4134321773006678</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.3614575744130715</v>
+        <v>0.388524511124726</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.239811656359848</v>
+        <v>0.202645813486429</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0.1464379225553732</v>
+        <v>-0.1219878756954432</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.09337370400215234</v>
+        <v>-0.08065796759330818</v>
       </c>
       <c r="AF19" t="n">
-        <v>117.9823945541721</v>
+        <v>102.3239875536463</v>
       </c>
       <c r="AG19" t="n">
-        <v>-33.64209000392492</v>
+        <v>-29.50613967493094</v>
       </c>
       <c r="AH19" t="n">
-        <v>-25.83254871716851</v>
+        <v>-20.76007183171385</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>22/09/2018</t>
+          <t>12/01/2019</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2639,150 +2639,150 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.831168831168831</v>
+        <v>2.37012987012987</v>
       </c>
       <c r="F20" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="G20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.233766233766234</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="T20" t="n">
         <v>3</v>
       </c>
-      <c r="H20" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.428571428571428</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="S20" t="n">
-        <v>13</v>
-      </c>
-      <c r="T20" t="n">
-        <v>5.6</v>
-      </c>
       <c r="U20" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="V20" t="n">
         <v>0.2</v>
       </c>
       <c r="W20" t="n">
-        <v>0.6915346384048462</v>
+        <v>0.4297822117805481</v>
       </c>
       <c r="X20" t="n">
-        <v>0.1967647969722748</v>
+        <v>0.2970468997955322</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.1117005422711372</v>
+        <v>0.2731708288192749</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.3909582976207729</v>
+        <v>0.2032605434616242</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.4202645814934624</v>
+        <v>0.4352818821253043</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.1887771208857646</v>
+        <v>0.3614575744130715</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.3005763407840733</v>
+        <v>0.2265216683189239</v>
       </c>
       <c r="AD20" t="n">
-        <v>-0.2234997845211876</v>
+        <v>-0.138234982329772</v>
       </c>
       <c r="AE20" t="n">
-        <v>-0.07707657861462736</v>
+        <v>-0.08828674559379662</v>
       </c>
       <c r="AF20" t="n">
-        <v>76.88194434374954</v>
+        <v>111.4439942259091</v>
       </c>
       <c r="AG20" t="n">
-        <v>-53.18073289139745</v>
+        <v>-31.75757779184994</v>
       </c>
       <c r="AH20" t="n">
-        <v>-40.82940679091562</v>
+        <v>-24.42520280205916</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20/10/2018</t>
+          <t>22/09/2018</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E21" t="n">
+        <v>3.831168831168831</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>1.428571428571428</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H21" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.4545454545454546</v>
       </c>
       <c r="O21" t="n">
         <v>1.2</v>
@@ -2791,58 +2791,58 @@
         <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.6</v>
+        <v>15.4</v>
       </c>
       <c r="R21" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="S21" t="n">
-        <v>12.4</v>
+        <v>13</v>
       </c>
       <c r="T21" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="U21" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W21" t="n">
-        <v>0.3910658955574036</v>
+        <v>0.6941421627998352</v>
       </c>
       <c r="X21" t="n">
-        <v>0.2897462248802185</v>
+        <v>0.1966769993305206</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.3191879391670227</v>
+        <v>0.1091808751225471</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.1834279999582063</v>
+        <v>0.3909582976207729</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.43755666625588</v>
+        <v>0.4202645814934624</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.3790153337859137</v>
+        <v>0.1887771208857646</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.2076378955991973</v>
+        <v>0.3031838651790623</v>
       </c>
       <c r="AD21" t="n">
-        <v>-0.1478104413756615</v>
+        <v>-0.2235875821629418</v>
       </c>
       <c r="AE21" t="n">
-        <v>-0.05982739461889097</v>
+        <v>-0.07959624576321744</v>
       </c>
       <c r="AF21" t="n">
-        <v>113.1985823573866</v>
+        <v>77.54890151305824</v>
       </c>
       <c r="AG21" t="n">
-        <v>-33.78086834796913</v>
+        <v>-53.20162393138045</v>
       </c>
       <c r="AH21" t="n">
-        <v>-15.78495361158248</v>
+        <v>-42.16413800027378</v>
       </c>
     </row>
     <row r="22">
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.5751750469207764</v>
+        <v>0.5408414602279663</v>
       </c>
       <c r="X22" t="n">
-        <v>0.243153840303421</v>
+        <v>0.2538860738277435</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.1816711276769638</v>
+        <v>0.2052724957466125</v>
       </c>
       <c r="Z22" t="n">
         <v>0.2875920617686603</v>
@@ -2939,22 +2939,22 @@
         <v>0.282728953558664</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.2875829851521161</v>
+        <v>0.253249398459306</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.1865251443692546</v>
+        <v>-0.1757929108449321</v>
       </c>
       <c r="AE22" t="n">
-        <v>-0.1010578258817002</v>
+        <v>-0.07745645781205146</v>
       </c>
       <c r="AF22" t="n">
-        <v>99.99684392660618</v>
+        <v>88.05854963514965</v>
       </c>
       <c r="AG22" t="n">
-        <v>-43.41034842822189</v>
+        <v>-40.91261549103898</v>
       </c>
       <c r="AH22" t="n">
-        <v>-35.74371305439416</v>
+        <v>-27.39601191781721</v>
       </c>
     </row>
     <row r="23">
@@ -3033,13 +3033,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0.5269556045532227</v>
+        <v>0.5231896042823792</v>
       </c>
       <c r="X23" t="n">
-        <v>0.260079026222229</v>
+        <v>0.2677243053913116</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.2129653692245483</v>
+        <v>0.2090861052274704</v>
       </c>
       <c r="Z23" t="n">
         <v>0.2249931865467219</v>
@@ -3051,22 +3051,22 @@
         <v>0.3593508199313602</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.3019624180065008</v>
+        <v>0.2981964177356572</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.1555769672996888</v>
+        <v>-0.1479316881306061</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.1463854507068119</v>
+        <v>-0.1502647147038898</v>
       </c>
       <c r="AF23" t="n">
-        <v>134.2095832505557</v>
+        <v>132.5357546655014</v>
       </c>
       <c r="AG23" t="n">
-        <v>-37.42926114969761</v>
+        <v>-35.58993264530073</v>
       </c>
       <c r="AH23" t="n">
-        <v>-40.73608367855485</v>
+        <v>-41.81560368572192</v>
       </c>
     </row>
     <row r="24">
@@ -3145,13 +3145,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0.5327432155609131</v>
+        <v>0.550810694694519</v>
       </c>
       <c r="X24" t="n">
-        <v>0.2534510791301727</v>
+        <v>0.2565352320671082</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.2138056308031082</v>
+        <v>0.1926540732383728</v>
       </c>
       <c r="Z24" t="n">
         <v>0.2520887249900191</v>
@@ -3163,22 +3163,22 @@
         <v>0.310067721056554</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.280654490570894</v>
+        <v>0.2987219697044999</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.1843924748232543</v>
+        <v>-0.1813083218863188</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.09626209025344579</v>
+        <v>-0.1174136478181812</v>
       </c>
       <c r="AF24" t="n">
-        <v>111.3316315840805</v>
+        <v>118.4987427408057</v>
       </c>
       <c r="AG24" t="n">
-        <v>-42.11378086038191</v>
+        <v>-41.40938475609131</v>
       </c>
       <c r="AH24" t="n">
-        <v>-31.04550513205092</v>
+        <v>-37.86709800623388</v>
       </c>
     </row>
     <row r="25">
@@ -3257,13 +3257,13 @@
         <v>0.2</v>
       </c>
       <c r="W25" t="n">
-        <v>0.6872597932815552</v>
+        <v>0.7039117813110352</v>
       </c>
       <c r="X25" t="n">
-        <v>0.2024488598108292</v>
+        <v>0.195863738656044</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.1102913469076157</v>
+        <v>0.1002245545387268</v>
       </c>
       <c r="Z25" t="n">
         <v>0.3257455446787606</v>
@@ -3275,22 +3275,22 @@
         <v>0.2556153329567962</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.3615142486027946</v>
+        <v>0.3781662366322746</v>
       </c>
       <c r="AD25" t="n">
-        <v>-0.2161902625536141</v>
+        <v>-0.2227753837083993</v>
       </c>
       <c r="AE25" t="n">
-        <v>-0.1453239860491806</v>
+        <v>-0.1553907784180694</v>
       </c>
       <c r="AF25" t="n">
-        <v>110.9805658153538</v>
+        <v>116.0925276829832</v>
       </c>
       <c r="AG25" t="n">
-        <v>-51.64119906725087</v>
+        <v>-53.21418181133672</v>
       </c>
       <c r="AH25" t="n">
-        <v>-56.85260910140435</v>
+        <v>-60.79086751980304</v>
       </c>
     </row>
     <row r="26">
@@ -3369,13 +3369,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0.4771891832351685</v>
+        <v>0.4524565041065216</v>
       </c>
       <c r="X26" t="n">
-        <v>0.2850337624549866</v>
+        <v>0.2930090129375458</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.2377770245075226</v>
+        <v>0.2545344531536102</v>
       </c>
       <c r="Z26" t="n">
         <v>0.233674139830982</v>
@@ -3387,22 +3387,22 @@
         <v>0.3434026760428767</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.2435150434041864</v>
+        <v>0.2187823642755396</v>
       </c>
       <c r="AD26" t="n">
-        <v>-0.1378894216711548</v>
+        <v>-0.1299141711885956</v>
       </c>
       <c r="AE26" t="n">
-        <v>-0.1056256515353541</v>
+        <v>-0.08886822288926649</v>
       </c>
       <c r="AF26" t="n">
-        <v>104.2113789657351</v>
+        <v>93.62711870204647</v>
       </c>
       <c r="AG26" t="n">
-        <v>-32.60389282182927</v>
+        <v>-30.71814836943233</v>
       </c>
       <c r="AH26" t="n">
-        <v>-30.75854060093751</v>
+        <v>-25.87872171333066</v>
       </c>
     </row>
     <row r="27">
@@ -3481,13 +3481,13 @@
         <v>0.2</v>
       </c>
       <c r="W27" t="n">
-        <v>0.6030229330062866</v>
+        <v>0.6290774345397949</v>
       </c>
       <c r="X27" t="n">
-        <v>0.2383664101362228</v>
+        <v>0.2291469275951385</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.158610612154007</v>
+        <v>0.1417755633592606</v>
       </c>
       <c r="Z27" t="n">
         <v>0.3553368047896701</v>
@@ -3499,33 +3499,33 @@
         <v>0.2267886427531559</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.2476861282166165</v>
+        <v>0.2737406297501248</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.1795081423209511</v>
+        <v>-0.1887276248620354</v>
       </c>
       <c r="AE27" t="n">
-        <v>-0.06817803059914895</v>
+        <v>-0.08501307939389535</v>
       </c>
       <c r="AF27" t="n">
-        <v>69.70460838224348</v>
+        <v>77.03694806175693</v>
       </c>
       <c r="AG27" t="n">
-        <v>-42.95742376878719</v>
+        <v>-45.16370373651247</v>
       </c>
       <c r="AH27" t="n">
-        <v>-30.06236545687878</v>
+        <v>-37.48559820362183</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>26/08/2018</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3539,28 +3539,28 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.7792207792207793</v>
+        <v>2.272727272727272</v>
       </c>
       <c r="F28" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="G28" t="n">
         <v>0.4</v>
       </c>
       <c r="H28" t="n">
-        <v>12</v>
+        <v>10.8</v>
       </c>
       <c r="I28" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="J28" t="n">
-        <v>9.199999999999999</v>
+        <v>12.8</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -3569,304 +3569,304 @@
         <v>1.753246753246753</v>
       </c>
       <c r="O28" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="P28" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>10.4</v>
+        <v>7.6</v>
       </c>
       <c r="R28" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="S28" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U28" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0.4012518525123596</v>
+        <v>0.4407476782798767</v>
       </c>
       <c r="X28" t="n">
-        <v>0.2923436462879181</v>
+        <v>0.2918060421943665</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.3064044713973999</v>
+        <v>0.2674462497234344</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.193145751782348</v>
+        <v>0.2404643123654608</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.4429916522193971</v>
+        <v>0.4649561066151115</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.3638625959982548</v>
+        <v>0.2945795810194278</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.2081061007300116</v>
+        <v>0.2002833659144159</v>
       </c>
       <c r="AD28" t="n">
-        <v>-0.150648005931479</v>
+        <v>-0.173150064420745</v>
       </c>
       <c r="AE28" t="n">
-        <v>-0.05745812460085492</v>
+        <v>-0.02713333129599338</v>
       </c>
       <c r="AF28" t="n">
-        <v>107.7456267143386</v>
+        <v>83.29026621215321</v>
       </c>
       <c r="AG28" t="n">
-        <v>-34.00696269934873</v>
+        <v>-37.24008824860491</v>
       </c>
       <c r="AH28" t="n">
-        <v>-15.79115996883904</v>
+        <v>-9.210866280037212</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>01/12/2018</t>
+          <t>20/10/2018</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2.272727272727272</v>
+        <v>1.428571428571428</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H29" t="n">
-        <v>10.8</v>
+        <v>15.4</v>
       </c>
       <c r="I29" t="n">
-        <v>2.8</v>
+        <v>5.8</v>
       </c>
       <c r="J29" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="K29" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1.753246753246753</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="O29" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="P29" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>7.6</v>
+        <v>11.8</v>
       </c>
       <c r="R29" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="S29" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="T29" t="n">
-        <v>3</v>
+        <v>6.6</v>
       </c>
       <c r="U29" t="n">
         <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W29" t="n">
-        <v>0.4544215798377991</v>
+        <v>0.4351960718631744</v>
       </c>
       <c r="X29" t="n">
-        <v>0.2865602076053619</v>
+        <v>0.2846306562423706</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.2590182423591614</v>
+        <v>0.2801732420921326</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.2404643123654608</v>
+        <v>0.2229758680008035</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.4649561066151115</v>
+        <v>0.4529694406176625</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.2945795810194278</v>
+        <v>0.324054691381534</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.2139572674723383</v>
+        <v>0.2122202038623709</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.1783958990097496</v>
+        <v>-0.1683387843752919</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.03556133866026645</v>
+        <v>-0.04388144928940141</v>
       </c>
       <c r="AF29" t="n">
-        <v>88.97672397522474</v>
+        <v>95.17631022815716</v>
       </c>
       <c r="AG29" t="n">
-        <v>-38.36833121914987</v>
+        <v>-37.16338659529605</v>
       </c>
       <c r="AH29" t="n">
-        <v>-12.07189532186929</v>
+        <v>-13.54137139700794</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20/10/2018</t>
+          <t>23/09/2018</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1.428571428571428</v>
+        <v>3.538961038961039</v>
       </c>
       <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H30" t="n">
+        <v>14</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.337662337662338</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P30" t="n">
         <v>1.2</v>
       </c>
-      <c r="G30" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H30" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="I30" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K30" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>1.818181818181818</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0.8</v>
-      </c>
       <c r="Q30" t="n">
-        <v>11.8</v>
+        <v>11.4</v>
       </c>
       <c r="R30" t="n">
         <v>4</v>
       </c>
       <c r="S30" t="n">
-        <v>11</v>
+        <v>10.6</v>
       </c>
       <c r="T30" t="n">
-        <v>6.6</v>
+        <v>3.6</v>
       </c>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V30" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="W30" t="n">
-        <v>0.4390305578708649</v>
+        <v>0.608129620552063</v>
       </c>
       <c r="X30" t="n">
-        <v>0.2831952571868896</v>
+        <v>0.2323235273361206</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.2777741849422455</v>
+        <v>0.159546822309494</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.2229758680008035</v>
+        <v>0.269763972484084</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.4529694406176625</v>
+        <v>0.4258117808156436</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.324054691381534</v>
+        <v>0.3044242467002724</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.2160546898700614</v>
+        <v>0.338365648067979</v>
       </c>
       <c r="AD30" t="n">
-        <v>-0.1697741834307728</v>
+        <v>-0.193488253479523</v>
       </c>
       <c r="AE30" t="n">
-        <v>-0.04628050643928849</v>
+        <v>-0.1448774243907784</v>
       </c>
       <c r="AF30" t="n">
-        <v>96.89599677633403</v>
+        <v>125.4302585153184</v>
       </c>
       <c r="AG30" t="n">
-        <v>-37.48027310612196</v>
+        <v>-45.43985446078916</v>
       </c>
       <c r="AH30" t="n">
-        <v>-14.28169616739138</v>
+        <v>-47.5906324680572</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>11/08/2018</t>
+          <t>03/02/2019</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3875,110 +3875,110 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.818181818181818</v>
+        <v>4.61038961038961</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
-        <v>9.800000000000001</v>
+        <v>14.2</v>
       </c>
       <c r="I31" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="K31" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.636363636363637</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="R31" t="n">
         <v>4.4</v>
       </c>
-      <c r="J31" t="n">
-        <v>11</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L31" t="n">
+      <c r="S31" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="T31" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U31" t="n">
         <v>1.4</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.4545454545454546</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="S31" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="T31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.2</v>
-      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0.4089475274085999</v>
+        <v>0.6036639213562012</v>
       </c>
       <c r="X31" t="n">
-        <v>0.2934333086013794</v>
+        <v>0.2302152365446091</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.2976191341876984</v>
+        <v>0.166120857000351</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.1714223197401433</v>
+        <v>0.3401121201057207</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.4236124580369214</v>
+        <v>0.3927681430084642</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.4049652222229352</v>
+        <v>0.2671197368858151</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.2375252076684566</v>
+        <v>0.2635518012504804</v>
       </c>
       <c r="AD31" t="n">
-        <v>-0.130179149435542</v>
+        <v>-0.1625529064638551</v>
       </c>
       <c r="AE31" t="n">
-        <v>-0.1073460880352368</v>
+        <v>-0.1009988798854641</v>
       </c>
       <c r="AF31" t="n">
-        <v>138.5614242232387</v>
+        <v>77.4896822755266</v>
       </c>
       <c r="AG31" t="n">
-        <v>-30.73071789220037</v>
+        <v>-41.38647936636553</v>
       </c>
       <c r="AH31" t="n">
-        <v>-26.50748314781023</v>
+        <v>-37.81033968622013</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>23/09/2018</t>
+          <t>25/08/2018</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3987,110 +3987,110 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3.538961038961039</v>
+        <v>3.831168831168831</v>
       </c>
       <c r="F32" t="n">
         <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>14</v>
+        <v>17.2</v>
       </c>
       <c r="I32" t="n">
         <v>6.4</v>
       </c>
       <c r="J32" t="n">
-        <v>12.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="L32" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>2.337662337662338</v>
+        <v>0.4545454545454546</v>
       </c>
       <c r="O32" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>1.2</v>
       </c>
       <c r="Q32" t="n">
-        <v>11.4</v>
+        <v>6.2</v>
       </c>
       <c r="R32" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="S32" t="n">
-        <v>10.6</v>
+        <v>10</v>
       </c>
       <c r="T32" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="U32" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0.611750602722168</v>
+        <v>0.6711175441741943</v>
       </c>
       <c r="X32" t="n">
-        <v>0.2305290997028351</v>
+        <v>0.2101406157016754</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.1577203422784805</v>
+        <v>0.1187418848276138</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.269763972484084</v>
+        <v>0.4224784315688654</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.4258117808156436</v>
+        <v>0.4041024742500282</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.3044242467002724</v>
+        <v>0.1734190941811063</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.341986630238084</v>
+        <v>0.2486391126053289</v>
       </c>
       <c r="AD32" t="n">
-        <v>-0.1952826811128085</v>
+        <v>-0.1939618585483528</v>
       </c>
       <c r="AE32" t="n">
-        <v>-0.1467039044217919</v>
+        <v>-0.05467720935349246</v>
       </c>
       <c r="AF32" t="n">
-        <v>126.7725364098651</v>
+        <v>58.85249850081399</v>
       </c>
       <c r="AG32" t="n">
-        <v>-45.86126779741603</v>
+        <v>-47.99818632843703</v>
       </c>
       <c r="AH32" t="n">
-        <v>-48.19061096872235</v>
+        <v>-31.528944152131</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>01/09/2018</t>
+          <t>27/10/2018</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -4099,110 +4099,110 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2.337662337662338</v>
+        <v>2.402597402597403</v>
       </c>
       <c r="F33" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="G33" t="n">
         <v>1.2</v>
       </c>
       <c r="H33" t="n">
-        <v>10.6</v>
+        <v>12</v>
       </c>
       <c r="I33" t="n">
         <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>10.4</v>
+        <v>10</v>
       </c>
       <c r="K33" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="M33" t="n">
         <v>0.4</v>
       </c>
       <c r="N33" t="n">
-        <v>0.8441558441558441</v>
+        <v>1.493506493506493</v>
       </c>
       <c r="O33" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.4</v>
+        <v>10.6</v>
       </c>
       <c r="R33" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="S33" t="n">
-        <v>8.4</v>
+        <v>10.2</v>
       </c>
       <c r="T33" t="n">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="U33" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="V33" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0.5051583647727966</v>
+        <v>0.4731389582157135</v>
       </c>
       <c r="X33" t="n">
-        <v>0.2753956019878387</v>
+        <v>0.2798813581466675</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.2194460034370422</v>
+        <v>0.2469796985387802</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.2636597518405216</v>
+        <v>0.1884072016198693</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.4663039902282941</v>
+        <v>0.417346254222238</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.2700362579311843</v>
+        <v>0.3942465441578926</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.241498612932275</v>
+        <v>0.2847317565958442</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.1909083882404554</v>
+        <v>-0.1374648960755705</v>
       </c>
       <c r="AE33" t="n">
-        <v>-0.05059025449414206</v>
+        <v>-0.1472668456191124</v>
       </c>
       <c r="AF33" t="n">
-        <v>91.59479641714483</v>
+        <v>151.1257288191773</v>
       </c>
       <c r="AG33" t="n">
-        <v>-40.94075801216928</v>
+        <v>-32.93785308598219</v>
       </c>
       <c r="AH33" t="n">
-        <v>-18.73461544820934</v>
+        <v>-37.35399784763445</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>12/05/2019</t>
+          <t>31/03/2019</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4211,100 +4211,100 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.207792207792208</v>
+        <v>4.220779220779221</v>
       </c>
       <c r="F34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>15</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K34" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L34" t="n">
         <v>1.6</v>
       </c>
-      <c r="G34" t="n">
-        <v>2</v>
-      </c>
-      <c r="H34" t="n">
-        <v>11</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J34" t="n">
-        <v>10</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.116883116883117</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="R34" t="n">
         <v>3.8</v>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.7467532467532467</v>
-      </c>
-      <c r="O34" t="n">
-        <v>2</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
       <c r="S34" t="n">
-        <v>9.800000000000001</v>
+        <v>12.2</v>
       </c>
       <c r="T34" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="U34" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0.4241611063480377</v>
+        <v>0.6095803380012512</v>
       </c>
       <c r="X34" t="n">
-        <v>0.2885730862617493</v>
+        <v>0.2303340882062912</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.2872657775878906</v>
+        <v>0.1600855737924576</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.2182784697526427</v>
+        <v>0.2594807254327272</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.3845700062512208</v>
+        <v>0.4277951967466647</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.3971515239961365</v>
+        <v>0.3127240778206081</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.205882636595395</v>
+        <v>0.350099612568524</v>
       </c>
       <c r="AD34" t="n">
-        <v>-0.09599691998947152</v>
+        <v>-0.1974611085403735</v>
       </c>
       <c r="AE34" t="n">
-        <v>-0.1098857464082459</v>
+        <v>-0.1526385040281505</v>
       </c>
       <c r="AF34" t="n">
-        <v>94.32109214834846</v>
+        <v>134.9231670231671</v>
       </c>
       <c r="AG34" t="n">
-        <v>-24.96214432457882</v>
+        <v>-46.15786012607048</v>
       </c>
       <c r="AH34" t="n">
-        <v>-27.66846902728109</v>
+        <v>-48.80932261177232</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>03/02/2019</t>
+          <t>14/01/2019</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -4326,107 +4326,107 @@
         <v>4.61038961038961</v>
       </c>
       <c r="F35" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="G35" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
-        <v>14.2</v>
+        <v>13.2</v>
       </c>
       <c r="I35" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="J35" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="L35" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N35" t="n">
-        <v>3.636363636363637</v>
+        <v>1.883116883116883</v>
       </c>
       <c r="O35" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="P35" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>12.6</v>
+        <v>10.8</v>
       </c>
       <c r="R35" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="S35" t="n">
-        <v>11.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T35" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="U35" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.58428555727005</v>
+        <v>0.7305483222007751</v>
       </c>
       <c r="X35" t="n">
-        <v>0.2373095005750656</v>
+        <v>0.1797405630350113</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.1784049421548843</v>
+        <v>0.08971118927001953</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.3401121201057207</v>
+        <v>0.4167950619905854</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.3927681430084642</v>
+        <v>0.3936744963329367</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.2671197368858151</v>
+        <v>0.1895304416764778</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.2441734371643293</v>
+        <v>0.3137532602101897</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.1554586424333986</v>
+        <v>-0.2139339332979254</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.08871479473093075</v>
+        <v>-0.09981925240645828</v>
       </c>
       <c r="AF35" t="n">
-        <v>71.79204230899806</v>
+        <v>75.27758575442931</v>
       </c>
       <c r="AG35" t="n">
-        <v>-39.58025751341254</v>
+        <v>-54.34284803580422</v>
       </c>
       <c r="AH35" t="n">
-        <v>-33.2116210375175</v>
+        <v>-52.66660675905902</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>25/08/2018</t>
+          <t>18/08/2018</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -4435,222 +4435,222 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3.831168831168831</v>
+        <v>2.337662337662338</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
-        <v>17.2</v>
+        <v>9</v>
       </c>
       <c r="I36" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="J36" t="n">
-        <v>9.199999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="K36" t="n">
-        <v>5.8</v>
+        <v>4.4</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N36" t="n">
-        <v>0.4545454545454546</v>
+        <v>1.428571428571428</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P36" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.2</v>
+        <v>12.8</v>
       </c>
       <c r="R36" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>11.4</v>
       </c>
       <c r="T36" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="U36" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W36" t="n">
-        <v>0.6937587857246399</v>
+        <v>0.4368116557598114</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1963712424039841</v>
+        <v>0.2909108996391296</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.1098699420690536</v>
+        <v>0.2722773849964142</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.4224784315688654</v>
+        <v>0.1960916248715082</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.4041024742500282</v>
+        <v>0.4488067753611772</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.1734190941811063</v>
+        <v>0.3551015997673146</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.2712803541557745</v>
+        <v>0.2407200308883032</v>
       </c>
       <c r="AD36" t="n">
-        <v>-0.2077312318460441</v>
+        <v>-0.1578958757220476</v>
       </c>
       <c r="AE36" t="n">
-        <v>-0.06354915211205264</v>
+        <v>-0.08282421477090041</v>
       </c>
       <c r="AF36" t="n">
-        <v>64.21164582257613</v>
+        <v>122.7589556902486</v>
       </c>
       <c r="AG36" t="n">
-        <v>-51.40558276253356</v>
+        <v>-35.18125937269572</v>
       </c>
       <c r="AH36" t="n">
-        <v>-36.64484145309081</v>
+        <v>-23.32408945078596</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>27/10/2018</t>
+          <t>15/12/2018</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2.402597402597403</v>
+        <v>4.675324675324675</v>
       </c>
       <c r="F37" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="G37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H37" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K37" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.337662337662338</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P37" t="n">
         <v>1.2</v>
       </c>
-      <c r="H37" t="n">
-        <v>12</v>
-      </c>
-      <c r="I37" t="n">
-        <v>5</v>
-      </c>
-      <c r="J37" t="n">
+      <c r="Q37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
         <v>10</v>
       </c>
-      <c r="K37" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="N37" t="n">
-        <v>1.493506493506493</v>
-      </c>
-      <c r="O37" t="n">
+      <c r="T37" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="U37" t="n">
         <v>1.2</v>
       </c>
-      <c r="P37" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="R37" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="S37" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="T37" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="U37" t="n">
-        <v>2.4</v>
-      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.4776742160320282</v>
+        <v>0.7295903563499451</v>
       </c>
       <c r="X37" t="n">
-        <v>0.2777482271194458</v>
+        <v>0.1797457933425903</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.244577556848526</v>
+        <v>0.09066393971443176</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.1884072016198693</v>
+        <v>0.3933788567781544</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.417346254222238</v>
+        <v>0.3936515946035148</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.3942465441578926</v>
+        <v>0.2129695486183307</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.2892670144121589</v>
+        <v>0.3362114995717907</v>
       </c>
       <c r="AD37" t="n">
-        <v>-0.1395980271027922</v>
+        <v>-0.2139058012609245</v>
       </c>
       <c r="AE37" t="n">
-        <v>-0.1496689873093666</v>
+        <v>-0.1223056089038989</v>
       </c>
       <c r="AF37" t="n">
-        <v>153.5328861769225</v>
+        <v>85.46760807772566</v>
       </c>
       <c r="AG37" t="n">
-        <v>-33.44897089419086</v>
+        <v>-54.33886314530747</v>
       </c>
       <c r="AH37" t="n">
-        <v>-37.96329721267648</v>
+        <v>-57.4286839115608</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>31/03/2019</t>
+          <t>28/10/2018</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man United</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4659,379 +4659,379 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4.220779220779221</v>
+        <v>3.181818181818182</v>
       </c>
       <c r="F38" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="G38" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H38" t="n">
-        <v>15</v>
+        <v>11.6</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J38" t="n">
-        <v>8.6</v>
+        <v>12.2</v>
       </c>
       <c r="K38" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="L38" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.337662337662338</v>
+      </c>
+      <c r="O38" t="n">
         <v>1.6</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3.116883116883117</v>
-      </c>
-      <c r="O38" t="n">
+      <c r="P38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="S38" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="T38" t="n">
+        <v>9</v>
+      </c>
+      <c r="U38" t="n">
         <v>1.2</v>
       </c>
-      <c r="P38" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="R38" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="S38" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="T38" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2.4</v>
-      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.6067691445350647</v>
+        <v>0.5022972822189331</v>
       </c>
       <c r="X38" t="n">
-        <v>0.2303281724452972</v>
+        <v>0.2668453752994537</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.1629026681184769</v>
+        <v>0.2308573126792908</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.2594807254327272</v>
+        <v>0.2249042356385522</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.4277951967466647</v>
+        <v>0.4374948738347362</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.3127240778206081</v>
+        <v>0.3376008905267116</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.3472884191023375</v>
+        <v>0.2773930465803809</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.1974670243013675</v>
+        <v>-0.1706494985352824</v>
       </c>
       <c r="AE38" t="n">
-        <v>-0.1498214097021313</v>
+        <v>-0.1067435778474208</v>
       </c>
       <c r="AF38" t="n">
-        <v>133.8397750057066</v>
+        <v>123.3382936487619</v>
       </c>
       <c r="AG38" t="n">
-        <v>-46.15924297492875</v>
+        <v>-39.00605669719123</v>
       </c>
       <c r="AH38" t="n">
-        <v>-47.90849836259657</v>
+        <v>-31.61827496393262</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>01/09/2018</t>
+          <t>19/01/2019</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Man United</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.493506493506493</v>
+        <v>3.116883116883117</v>
       </c>
       <c r="F39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3</v>
+      </c>
+      <c r="H39" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="I39" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J39" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.6168831168831169</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P39" t="n">
         <v>1</v>
       </c>
-      <c r="G39" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H39" t="n">
+      <c r="Q39" t="n">
         <v>10.6</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J39" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K39" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1.428571428571428</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>10</v>
       </c>
       <c r="R39" t="n">
         <v>3.4</v>
       </c>
       <c r="S39" t="n">
-        <v>9</v>
+        <v>12.8</v>
       </c>
       <c r="T39" t="n">
         <v>4.4</v>
       </c>
       <c r="U39" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W39" t="n">
-        <v>0.4058566093444824</v>
+        <v>0.6637383103370667</v>
       </c>
       <c r="X39" t="n">
-        <v>0.2947318851947784</v>
+        <v>0.21444071829319</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.2994115054607391</v>
+        <v>0.1218210458755493</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.164101376887505</v>
+        <v>0.3432523593195986</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.3851823985276159</v>
+        <v>0.4333684686395278</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.4507162245848791</v>
+        <v>0.2233791720408737</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.2417552324569774</v>
+        <v>0.3204859510174681</v>
       </c>
       <c r="AD39" t="n">
-        <v>-0.09045051333283743</v>
+        <v>-0.2189277503463378</v>
       </c>
       <c r="AE39" t="n">
-        <v>-0.15130471912414</v>
+        <v>-0.1015581261653244</v>
       </c>
       <c r="AF39" t="n">
-        <v>147.3206605833087</v>
+        <v>93.36744302435139</v>
       </c>
       <c r="AG39" t="n">
-        <v>-23.48251469397103</v>
+        <v>-50.51769249239959</v>
       </c>
       <c r="AH39" t="n">
-        <v>-33.56984081580276</v>
+        <v>-45.46445634901958</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>14/01/2019</t>
+          <t>22/04/2019</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4.61038961038961</v>
+        <v>3.376623376623376</v>
       </c>
       <c r="F40" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="G40" t="n">
         <v>1.8</v>
       </c>
       <c r="H40" t="n">
-        <v>13.2</v>
+        <v>15.2</v>
       </c>
       <c r="I40" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="J40" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="K40" t="n">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="M40" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>1.883116883116883</v>
       </c>
       <c r="O40" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="P40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="T40" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U40" t="n">
         <v>1.4</v>
       </c>
-      <c r="Q40" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="R40" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S40" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="T40" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.6</v>
-      </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.7137356400489807</v>
+        <v>0.659961998462677</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1869507282972336</v>
+        <v>0.2121710628271103</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.09931360930204391</v>
+        <v>0.1278669685125351</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.4167950619905854</v>
+        <v>0.3927848164513487</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.3936744963329367</v>
+        <v>0.4081780141502573</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.1895304416764778</v>
+        <v>0.1990371693983941</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.2969405780583953</v>
+        <v>0.2671771820113283</v>
       </c>
       <c r="AD40" t="n">
-        <v>-0.2067237680357031</v>
+        <v>-0.196006951323147</v>
       </c>
       <c r="AE40" t="n">
-        <v>-0.0902168323744339</v>
+        <v>-0.07117020088585901</v>
       </c>
       <c r="AF40" t="n">
-        <v>71.24378504875439</v>
+        <v>68.02126019665566</v>
       </c>
       <c r="AG40" t="n">
-        <v>-52.5113437525995</v>
+        <v>-48.01996788856773</v>
       </c>
       <c r="AH40" t="n">
-        <v>-47.60018051793023</v>
+        <v>-35.75724127356548</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>18/08/2018</t>
+          <t>15/08/2015</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2.337662337662338</v>
+        <v>1.428571428571428</v>
       </c>
       <c r="F41" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="G41" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H41" t="n">
-        <v>9</v>
+        <v>11.8</v>
       </c>
       <c r="I41" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="J41" t="n">
-        <v>10.4</v>
+        <v>10.8</v>
       </c>
       <c r="K41" t="n">
-        <v>4.4</v>
+        <v>6.6</v>
       </c>
       <c r="L41" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="M41" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1.428571428571428</v>
+        <v>3.051948051948052</v>
       </c>
       <c r="O41" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="P41" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="Q41" t="n">
-        <v>12.8</v>
+        <v>16.2</v>
       </c>
       <c r="R41" t="n">
         <v>5</v>
@@ -5040,65 +5040,65 @@
         <v>11.4</v>
       </c>
       <c r="T41" t="n">
-        <v>4.8</v>
+        <v>6.8</v>
       </c>
       <c r="U41" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4420420527458191</v>
+        <v>0.2254549860954285</v>
       </c>
       <c r="X41" t="n">
-        <v>0.2867427468299866</v>
+        <v>0.2651278674602509</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.2712152302265167</v>
+        <v>0.5094171762466431</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.1960916248715082</v>
+        <v>0.4269501661623996</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.4488067753611772</v>
+        <v>0.2846936967424976</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.3551015997673146</v>
+        <v>0.2883561370951027</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.2459504278743109</v>
+        <v>-0.2014951800669711</v>
       </c>
       <c r="AD41" t="n">
-        <v>-0.1620640285311906</v>
+        <v>-0.01956582928224676</v>
       </c>
       <c r="AE41" t="n">
-        <v>-0.08388636954079787</v>
+        <v>0.2210610391515404</v>
       </c>
       <c r="AF41" t="n">
-        <v>125.4262786773649</v>
+        <v>-47.19407463360212</v>
       </c>
       <c r="AG41" t="n">
-        <v>-36.10997815279629</v>
+        <v>-6.872589560682772</v>
       </c>
       <c r="AH41" t="n">
-        <v>-23.62320237243809</v>
+        <v>76.66250539298639</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>15/12/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -5107,654 +5107,94 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4.675324675324675</v>
+        <v>0.8441558441558441</v>
       </c>
       <c r="F42" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="G42" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H42" t="n">
-        <v>14.2</v>
+        <v>13.2</v>
       </c>
       <c r="I42" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K42" t="n">
         <v>5.6</v>
       </c>
-      <c r="J42" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="K42" t="n">
-        <v>7.6</v>
-      </c>
       <c r="L42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.272727272727272</v>
+      </c>
+      <c r="O42" t="n">
         <v>0.4</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2.337662337662338</v>
-      </c>
-      <c r="O42" t="n">
+      <c r="P42" t="n">
         <v>0.8</v>
       </c>
-      <c r="P42" t="n">
-        <v>1.2</v>
-      </c>
       <c r="Q42" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="R42" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="S42" t="n">
-        <v>10</v>
+        <v>10.6</v>
       </c>
       <c r="T42" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="U42" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W42" t="n">
-        <v>0.718335747718811</v>
+        <v>0.4001037180423737</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1851275116205215</v>
+        <v>0.2938513159751892</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.09653674066066742</v>
+        <v>0.3060449361801147</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.3933788567781544</v>
+        <v>0.1764212887265453</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.3936515946035148</v>
+        <v>0.4002643758921188</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.2129695486183307</v>
+        <v>0.4233143353813358</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.3249568909406567</v>
+        <v>0.2236824293158284</v>
       </c>
       <c r="AD42" t="n">
-        <v>-0.2085240829829932</v>
+        <v>-0.1064130599169296</v>
       </c>
       <c r="AE42" t="n">
-        <v>-0.1164328079576633</v>
+        <v>-0.117269399201221</v>
       </c>
       <c r="AF42" t="n">
-        <v>82.60659802667428</v>
+        <v>126.7887968228927</v>
       </c>
       <c r="AG42" t="n">
-        <v>-52.97173588056167</v>
+        <v>-26.5856934381816</v>
       </c>
       <c r="AH42" t="n">
-        <v>-54.6711061337347</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>28/10/2018</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Man United</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Everton</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>3.181818181818182</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H43" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="I43" t="n">
-        <v>6</v>
-      </c>
-      <c r="J43" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K43" t="n">
-        <v>7</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N43" t="n">
-        <v>2.337662337662338</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="S43" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="T43" t="n">
-        <v>9</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0.5295895934104919</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0.2602070271968842</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0.2102033346891403</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>0.2249042356385522</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>0.4374948738347362</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0.3376008905267116</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>0.3046853577719397</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>-0.177287846637852</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>-0.1273975558375713</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>135.4733746596063</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>-40.52341118511541</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>-37.73614330187656</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>19/01/2019</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Man United</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Brighton</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>3.116883116883117</v>
-      </c>
-      <c r="F44" t="n">
-        <v>3</v>
-      </c>
-      <c r="G44" t="n">
-        <v>3</v>
-      </c>
-      <c r="H44" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="I44" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="J44" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="K44" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0.6168831168831169</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="R44" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="T44" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0.6647847890853882</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0.2131295055150986</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0.1220857203006744</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>0.3432523593195986</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>0.4333684686395278</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0.2233791720408737</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0.3215324297657896</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>-0.2202389631244293</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>-0.1012934517401993</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>93.67231456271338</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>-50.82025552431737</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>-45.34596973153106</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>22/04/2019</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Chelsea</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Burnley</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>3.376623376623376</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H45" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J45" t="n">
-        <v>9</v>
-      </c>
-      <c r="K45" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1.883116883116883</v>
-      </c>
-      <c r="O45" t="n">
-        <v>2</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="R45" t="n">
-        <v>3</v>
-      </c>
-      <c r="S45" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="T45" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0.6533697843551636</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0.2134673148393631</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0.1331628710031509</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>0.3927848164513487</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>0.4081780141502573</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>0.1990371693983941</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>0.2605849679038149</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>-0.1947106993108942</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>-0.06587429839524317</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>66.34293307416876</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>-47.70239762086202</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>-33.09648071983416</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>15/08/2015</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>West Ham</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Leicester</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>1.428571428571428</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H46" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J46" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K46" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>3.051948051948052</v>
-      </c>
-      <c r="O46" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="T46" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0.2266311943531036</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0.2650008499622345</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0.5083679556846619</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>0.4269501661623996</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>0.2846936967424976</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0.2883561370951027</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>-0.200318971809296</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>-0.01969284678026312</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>0.2200118185895591</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>-46.91858387358031</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>-6.917205054271042</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>76.29864264584633</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>01/10/2018</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Bournemouth</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Crystal Palace</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>0.8441558441558441</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H47" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K47" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2.272727272727272</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>12</v>
-      </c>
-      <c r="R47" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="T47" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V47" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W47" t="n">
-        <v>0.3931068181991577</v>
-      </c>
-      <c r="X47" t="n">
-        <v>0.2911533117294312</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>0.3157398700714111</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>0.1764212887265453</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>0.4002643758921188</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>0.4233143353813358</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>0.2166855294726124</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>-0.1091110641626876</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>-0.1075744653099246</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>122.8227789495842</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>-27.25974898952681</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>-25.41243145309926</v>
+        <v>-27.70267609661289</v>
       </c>
     </row>
   </sheetData>
